--- a/model/inputdata/RICE_parameter.xlsx
+++ b/model/inputdata/RICE_parameter.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryamalki/Desktop/PyRICE_2022/model/inputdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09751C51-2B6B-C74C-A6CA-6CF08613A963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="31100" yWindow="60" windowWidth="27380" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="173">
   <si>
     <t>Linked Parameters</t>
   </si>
@@ -65,7 +87,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Book Antiqua"/>
@@ -104,7 +126,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Book Antiqua"/>
@@ -379,9 +401,6 @@
     <t>CO2 emissions for 2005</t>
   </si>
   <si>
-    <t>CDIAC, including cement and flaring (3 year average around 2005)</t>
-  </si>
-  <si>
     <t>Initial emissions controls</t>
   </si>
   <si>
@@ -565,126 +584,6 @@
     <t>NON-SLR DAMAGE FUNCTION (FROM IMPACTS SHEET)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>US</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>EU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>Japan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>Russia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>Eurasia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>China</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>India</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>Middle East</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>Africa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>Latin America</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>OHI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Book Antiqua"/>
-      </rPr>
-      <t>Other</t>
-    </r>
-  </si>
-  <si>
     <t>Parameters of non-SLR Function</t>
   </si>
   <si>
@@ -695,38 +594,33 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>From MPD Data</t>
+  </si>
+  <si>
+    <t>From EDGAR Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="60" formatCode="0.000"/>
-    <numFmt numFmtId="61" formatCode="0.0000"/>
-    <numFmt numFmtId="62" formatCode="0.0"/>
-    <numFmt numFmtId="63" formatCode="&quot; &quot;* #,##0.0000&quot; &quot;;&quot; &quot;* (#,##0.0000);&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
-    <numFmt numFmtId="64" formatCode="0.0%"/>
-    <numFmt numFmtId="65" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot; &quot;* (#,##0.00);&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
-    <numFmt numFmtId="66" formatCode="0.000000"/>
-    <numFmt numFmtId="67" formatCode="&quot; &quot;* #,##0.00000&quot; &quot;;&quot; &quot;* (#,##0.00000);&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
-    <numFmt numFmtId="68" formatCode="#,##0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="&quot; &quot;* #,##0.0000&quot; &quot;;&quot; &quot;* \(#,##0.0000\);&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot; &quot;* \(#,##0.00\);&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="&quot; &quot;* #,##0.00000&quot; &quot;;&quot; &quot;* \(#,##0.00000\);&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -741,19 +635,19 @@
       <name val="Book Antiqua"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Book Antiqua"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Book Antiqua"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Book Antiqua"/>
@@ -764,7 +658,7 @@
       <name val="Book Antiqua"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Book Antiqua"/>
@@ -797,8 +691,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1054,296 +948,123 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="98">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="95">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="63" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="64" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="63" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="64" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="65" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="66" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="67" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="65" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="65" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="65" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="65" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="68" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,27 +1073,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="fffbe4d5"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffb7d6a3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFBE4D5"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFB7D6A3"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoorthema">
       <a:dk1>
@@ -1574,7 +1353,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1593,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1623,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1649,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1675,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1701,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1727,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1753,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1779,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1805,7 +1584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1831,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1844,9 +1623,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1863,7 +1648,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1882,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1908,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1934,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1960,7 +1745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1986,7 +1771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2012,7 +1797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2038,7 +1823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2064,7 +1849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2090,7 +1875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2116,7 +1901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2129,9 +1914,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2145,7 +1936,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2164,7 +1955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2194,7 +1985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2220,7 +2011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2246,7 +2037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2272,7 +2063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2298,7 +2089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2324,7 +2115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2350,7 +2141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2376,7 +2167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2402,7 +2193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2415,30 +2206,41 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH166"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.0234" style="1" customWidth="1"/>
-    <col min="2" max="34" width="8.85156" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56" style="1" customWidth="1"/>
+    <col min="2" max="17" width="8.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" style="1" customWidth="1"/>
+    <col min="19" max="35" width="8.83203125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2474,11 +2276,11 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" ht="18.3" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="5">
+    <row r="2" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
@@ -2514,9 +2316,9 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="10"/>
@@ -2552,7 +2354,7 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2588,7 +2390,7 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2624,13 +2426,13 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="12">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3"/>
@@ -2664,7 +2466,7 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2700,8 +2502,8 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="s" s="13">
+    <row r="8" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
@@ -2738,15 +2540,15 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="14">
+    <row r="9" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" t="s" s="16">
+      <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3"/>
@@ -2780,15 +2582,15 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="14">
+    <row r="10" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="15">
         <v>1.5</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" t="s" s="16">
+      <c r="D10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3"/>
@@ -2822,15 +2624,15 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="14">
+    <row r="11" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="15">
-        <v>0.00175438019516161</v>
+        <v>1.75438019516161E-3</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" t="s" s="16">
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3"/>
@@ -2864,15 +2666,15 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="14">
+    <row r="12" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="15">
-        <v>0.00225921075317752</v>
+        <v>2.2592107531775201E-3</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" t="s" s="16">
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3"/>
@@ -2906,15 +2708,15 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="14">
+    <row r="13" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="15">
         <v>2</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" t="s" s="16">
+      <c r="D13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3"/>
@@ -2948,15 +2750,15 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="14">
+    <row r="14" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="15">
         <v>1.2</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" t="s" s="16">
+      <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="3"/>
@@ -2990,15 +2792,15 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="14">
+    <row r="15" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15">
         <v>2.8</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" t="s" s="16">
+      <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3"/>
@@ -3032,15 +2834,15 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="14">
+    <row r="16" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="17">
         <v>2250</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" t="s" s="16">
+      <c r="D16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="3"/>
@@ -3074,15 +2876,15 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="14">
+    <row r="17" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="17">
         <v>6000</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" t="s" s="16">
+      <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="3"/>
@@ -3116,15 +2918,15 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="14">
+    <row r="18" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="15">
         <v>3.2</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" t="s" s="16">
+      <c r="D18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="3"/>
@@ -3138,43 +2940,43 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" t="s" s="18">
+      <c r="P18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" t="s" s="18">
+      <c r="Q18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R18" t="s" s="18">
+      <c r="R18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S18" t="s" s="18">
+      <c r="S18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T18" t="s" s="18">
+      <c r="T18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="U18" t="s" s="18">
+      <c r="U18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V18" t="s" s="18">
+      <c r="V18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W18" t="s" s="18">
+      <c r="W18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="X18" t="s" s="18">
+      <c r="X18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y18" t="s" s="18">
+      <c r="Y18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Z18" t="s" s="18">
+      <c r="Z18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AA18" t="s" s="18">
+      <c r="AA18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AB18" t="s" s="18">
+      <c r="AB18" s="18" t="s">
         <v>34</v>
       </c>
       <c r="AC18" s="3"/>
@@ -3184,15 +2986,15 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="14">
+    <row r="19" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="15">
         <v>0.1</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" t="s" s="16">
+      <c r="D19" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="3"/>
@@ -3226,15 +3028,15 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="14">
+    <row r="20" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="15">
         <v>0.1</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" t="s" s="16">
+      <c r="D20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="3"/>
@@ -3268,15 +3070,15 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="14">
+    <row r="21" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="15">
-        <v>0.0033</v>
+        <v>3.3E-3</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" t="s" s="16">
+      <c r="D21" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="3"/>
@@ -3310,15 +3112,15 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="14">
+    <row r="22" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="15">
         <v>0.1</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" t="s" s="16">
+      <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="3"/>
@@ -3352,15 +3154,15 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="14">
+    <row r="23" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="15">
-        <v>-0.0025</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" t="s" s="16">
+      <c r="D23" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="3"/>
@@ -3394,15 +3196,15 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="14">
+    <row r="24" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="15">
         <v>0</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" t="s" s="16">
+      <c r="D24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="3"/>
@@ -3436,15 +3238,15 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="14">
+    <row r="25" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="15">
         <v>1</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" t="s" s="16">
+      <c r="D25" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="3"/>
@@ -3478,15 +3280,15 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="14">
+    <row r="26" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="15">
         <v>0</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" t="s" s="16">
+      <c r="D26" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="3"/>
@@ -3520,15 +3322,15 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="14">
+    <row r="27" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="15">
         <v>1</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" t="s" s="16">
+      <c r="D27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="3"/>
@@ -3562,15 +3364,15 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="14">
+    <row r="28" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="15">
         <v>12</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" t="s" s="16">
+      <c r="D28" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="3"/>
@@ -3604,15 +3406,15 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="14">
+    <row r="29" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="15">
         <v>0</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" t="s" s="16">
+      <c r="D29" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="3"/>
@@ -3646,15 +3448,15 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="14">
+    <row r="30" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="15">
         <v>0</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" t="s" s="19">
+      <c r="D30" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="3"/>
@@ -3688,15 +3490,15 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="14">
+    <row r="31" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="20">
         <v>4</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" t="s" s="22">
+      <c r="D31" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="7"/>
@@ -3730,15 +3532,15 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="14">
+    <row r="32" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="20">
         <v>6</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" t="s" s="23">
+      <c r="D32" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="3"/>
@@ -3772,8 +3574,8 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="14">
+    <row r="33" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="24">
@@ -3781,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" t="s" s="16">
+      <c r="D33" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="3"/>
@@ -3815,51 +3617,51 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
     </row>
-    <row r="34" ht="18.3" customHeight="1">
-      <c r="A34" t="s" s="25">
+    <row r="34" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" t="s" s="29">
+      <c r="F34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s" s="29">
+      <c r="G34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H34" t="s" s="29">
+      <c r="H34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I34" t="s" s="29">
+      <c r="I34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J34" t="s" s="29">
+      <c r="J34" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K34" t="s" s="29">
+      <c r="K34" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L34" t="s" s="29">
+      <c r="L34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M34" t="s" s="29">
+      <c r="M34" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N34" t="s" s="29">
+      <c r="N34" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="O34" t="s" s="29">
+      <c r="O34" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="P34" t="s" s="29">
+      <c r="P34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" t="s" s="29">
+      <c r="Q34" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="R34" t="s" s="18">
+      <c r="R34" s="18" t="s">
         <v>34</v>
       </c>
       <c r="S34" s="28"/>
@@ -3879,15 +3681,15 @@
       <c r="AG34" s="28"/>
       <c r="AH34" s="28"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="16">
+    <row r="35" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="20">
         <v>0.3</v>
       </c>
-      <c r="D35" t="s" s="31">
+      <c r="D35" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="30"/>
@@ -3927,7 +3729,7 @@
       <c r="Q35" s="20">
         <v>0.3</v>
       </c>
-      <c r="R35" t="s" s="31">
+      <c r="R35" s="31" t="s">
         <v>61</v>
       </c>
       <c r="S35" s="3"/>
@@ -3947,15 +3749,15 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="16">
+    <row r="36" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="20">
         <v>0.1</v>
       </c>
-      <c r="D36" t="s" s="31">
+      <c r="D36" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="30"/>
@@ -3995,7 +3797,7 @@
       <c r="Q36" s="20">
         <v>0.1</v>
       </c>
-      <c r="R36" t="s" s="31">
+      <c r="R36" s="31" t="s">
         <v>61</v>
       </c>
       <c r="S36" s="3"/>
@@ -4015,58 +3817,60 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="16">
+    <row r="37" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="20">
         <v>55.34</v>
       </c>
-      <c r="D37" t="s" s="31">
+      <c r="D37" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="94">
         <f>SUM(F37:Q37)</f>
-        <v>55.3789456938741</v>
-      </c>
-      <c r="F37" s="33">
-        <v>12.397900201984</v>
-      </c>
-      <c r="G37" s="33">
-        <v>13.0310574778273</v>
-      </c>
-      <c r="H37" s="33">
-        <v>3.87028378535852</v>
-      </c>
-      <c r="I37" s="33">
-        <v>1.69795669481881</v>
-      </c>
-      <c r="J37" s="33">
-        <v>0.807335054286936</v>
-      </c>
-      <c r="K37" s="33">
-        <v>5.3332327426145</v>
-      </c>
-      <c r="L37" s="33">
-        <v>2.44083151280076</v>
-      </c>
-      <c r="M37" s="33">
-        <v>3.48010334883969</v>
-      </c>
-      <c r="N37" s="33">
-        <v>1.30053013555199</v>
-      </c>
-      <c r="O37" s="33">
-        <v>4.55847625249141</v>
-      </c>
-      <c r="P37" s="33">
-        <v>3.84204975035645</v>
-      </c>
-      <c r="Q37" s="33">
-        <v>2.61918873694378</v>
-      </c>
-      <c r="R37" s="3"/>
+        <v>64.328575834756521</v>
+      </c>
+      <c r="F37" s="95">
+        <v>12.785853857239999</v>
+      </c>
+      <c r="G37" s="95">
+        <v>14.51609248267</v>
+      </c>
+      <c r="H37" s="95">
+        <v>3.8702837853585201</v>
+      </c>
+      <c r="I37" s="95">
+        <v>2.0181592676900002</v>
+      </c>
+      <c r="J37" s="95">
+        <v>1.4732930076149999</v>
+      </c>
+      <c r="K37" s="95">
+        <v>7.4808173448669999</v>
+      </c>
+      <c r="L37" s="95">
+        <v>3.225540075848</v>
+      </c>
+      <c r="M37" s="95">
+        <v>3.721438138126</v>
+      </c>
+      <c r="N37" s="95">
+        <v>1.6013534911880001</v>
+      </c>
+      <c r="O37" s="95">
+        <v>5.393047850726</v>
+      </c>
+      <c r="P37" s="95">
+        <v>4.1447712202579998</v>
+      </c>
+      <c r="Q37" s="95">
+        <v>4.0979253131700002</v>
+      </c>
+      <c r="R37" s="96" t="s">
+        <v>171</v>
+      </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -4084,55 +3888,55 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="16">
+    <row r="38" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="20">
         <v>0.05</v>
       </c>
-      <c r="D38" t="s" s="31">
+      <c r="D38" s="31" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="32">
-        <v>0.0627654731115463</v>
+        <v>6.2765473111546302E-2</v>
       </c>
       <c r="G38" s="32">
-        <v>0.06776547311154631</v>
+        <v>3.8754208163219999</v>
       </c>
       <c r="H38" s="32">
-        <v>0.0627654731115463</v>
+        <v>6.2765473111546302E-2</v>
       </c>
       <c r="I38" s="32">
-        <v>0.08276547311154631</v>
+        <v>8.2765473111546306E-2</v>
       </c>
       <c r="J38" s="32">
-        <v>0.0777654731115463</v>
+        <v>7.7765473111546302E-2</v>
       </c>
       <c r="K38" s="32">
-        <v>0.0727654731115463</v>
+        <v>7.2765473111546297E-2</v>
       </c>
       <c r="L38" s="32">
-        <v>0.0777654731115463</v>
+        <v>7.7765473111546302E-2</v>
       </c>
       <c r="M38" s="32">
-        <v>0.0927654731115463</v>
+        <v>9.2765473111546301E-2</v>
       </c>
       <c r="N38" s="32">
-        <v>0.08276547311154631</v>
+        <v>8.2765473111546306E-2</v>
       </c>
       <c r="O38" s="32">
-        <v>0.0777654731115463</v>
+        <v>7.7765473111546302E-2</v>
       </c>
       <c r="P38" s="32">
-        <v>0.06776547311154631</v>
+        <v>6.7765473111546307E-2</v>
       </c>
       <c r="Q38" s="32">
-        <v>0.0777654731115463</v>
-      </c>
-      <c r="R38" t="s" s="16">
+        <v>7.7765473111546302E-2</v>
+      </c>
+      <c r="R38" s="16" t="s">
         <v>67</v>
       </c>
       <c r="S38" s="3"/>
@@ -4152,26 +3956,26 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="16">
+    <row r="39" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="20">
         <v>180</v>
       </c>
-      <c r="D39" t="s" s="31">
+      <c r="D39" s="31" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="32">
-        <v>22.8510997418122</v>
+        <v>22.851099741812199</v>
       </c>
       <c r="G39" s="32">
         <v>23.3022753182887</v>
       </c>
       <c r="H39" s="32">
-        <v>7.13348545862575</v>
+        <v>7.1334854586257501</v>
       </c>
       <c r="I39" s="32">
         <v>2.78710743212834</v>
@@ -4180,10 +3984,10 @@
         <v>1.36247220591651</v>
       </c>
       <c r="K39" s="32">
-        <v>9.26093503504214</v>
+        <v>9.2609350350421398</v>
       </c>
       <c r="L39" s="32">
-        <v>4.11918828230917</v>
+        <v>4.1191882823091701</v>
       </c>
       <c r="M39" s="32">
         <v>5.41606848881991</v>
@@ -4192,15 +3996,15 @@
         <v>2.13475244543302</v>
       </c>
       <c r="O39" s="32">
-        <v>7.69296113474917</v>
+        <v>7.6929611347491704</v>
       </c>
       <c r="P39" s="32">
-        <v>6.87039415041359</v>
+        <v>6.8703941504135901</v>
       </c>
       <c r="Q39" s="32">
-        <v>4.42018693129502</v>
-      </c>
-      <c r="R39" t="s" s="16">
+        <v>4.4201869312950199</v>
+      </c>
+      <c r="R39" s="16" t="s">
         <v>70</v>
       </c>
       <c r="S39" s="3"/>
@@ -4220,13 +4024,13 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="16">
+    <row r="40" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="11"/>
-      <c r="D40" t="s" s="16">
+      <c r="D40" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E40" s="3"/>
@@ -4234,39 +4038,39 @@
         <v>11.3476953564816</v>
       </c>
       <c r="G40" s="32">
-        <v>8.34782154800706</v>
+        <v>8.3478215480070599</v>
       </c>
       <c r="H40" s="32">
-        <v>9.062435156822829</v>
+        <v>9.0624351568228292</v>
       </c>
       <c r="I40" s="32">
-        <v>4.86773077492333</v>
+        <v>4.8677307749233298</v>
       </c>
       <c r="J40" s="32">
-        <v>2.70196943025762</v>
+        <v>2.7019694302576198</v>
       </c>
       <c r="K40" s="32">
-        <v>2.27082270044559</v>
+        <v>2.2708227004455899</v>
       </c>
       <c r="L40" s="32">
-        <v>1.49837396902734</v>
+        <v>1.4983739690273401</v>
       </c>
       <c r="M40" s="32">
-        <v>3.8948608362974</v>
+        <v>3.8948608362974002</v>
       </c>
       <c r="N40" s="32">
-        <v>1.25125953990703</v>
+        <v>1.2512595399070301</v>
       </c>
       <c r="O40" s="32">
-        <v>3.7305977748298</v>
+        <v>3.7305977748297998</v>
       </c>
       <c r="P40" s="32">
-        <v>9.029344258626351</v>
+        <v>9.0293442586263506</v>
       </c>
       <c r="Q40" s="32">
         <v>1.75490433056485</v>
       </c>
-      <c r="R40" t="s" s="16">
+      <c r="R40" s="16" t="s">
         <v>70</v>
       </c>
       <c r="S40" s="3"/>
@@ -4286,13 +4090,13 @@
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="16">
+    <row r="41" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" t="s" s="16">
+      <c r="D41" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="3"/>
@@ -4300,7 +4104,7 @@
         <v>0.231813977879292</v>
       </c>
       <c r="G41" s="32">
-        <v>0.216969634560551</v>
+        <v>0.21696963456055099</v>
       </c>
       <c r="H41" s="32">
         <v>0.212787173845427</v>
@@ -4309,13 +4113,13 @@
         <v>0.201000206157498</v>
       </c>
       <c r="J41" s="32">
-        <v>0.208280632205299</v>
+        <v>0.20828063220529899</v>
       </c>
       <c r="K41" s="32">
-        <v>0.31105109729993</v>
+        <v>0.31105109729993002</v>
       </c>
       <c r="L41" s="32">
-        <v>0.272299975122023</v>
+        <v>0.27229997512202297</v>
       </c>
       <c r="M41" s="32">
         <v>0.225188001161333</v>
@@ -4324,13 +4128,13 @@
         <v>0.263570046440742</v>
       </c>
       <c r="O41" s="32">
-        <v>0.241847749838621</v>
+        <v>0.24184774983862101</v>
       </c>
       <c r="P41" s="32">
-        <v>0.229055432341345</v>
+        <v>0.22905543234134501</v>
       </c>
       <c r="Q41" s="32">
-        <v>0.243875829967054</v>
+        <v>0.24387582996705401</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -4350,48 +4154,48 @@
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
     </row>
-    <row r="42" ht="18.3" customHeight="1">
-      <c r="A42" t="s" s="25">
+    <row r="42" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
-      <c r="F42" t="s" s="18">
+      <c r="F42" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s" s="18">
+      <c r="G42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H42" t="s" s="18">
+      <c r="H42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I42" t="s" s="18">
+      <c r="I42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J42" t="s" s="18">
+      <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K42" t="s" s="18">
+      <c r="K42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L42" t="s" s="18">
+      <c r="L42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M42" t="s" s="18">
+      <c r="M42" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N42" t="s" s="18">
+      <c r="N42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O42" t="s" s="18">
+      <c r="O42" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P42" t="s" s="18">
+      <c r="P42" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q42" t="s" s="18">
+      <c r="Q42" s="18" t="s">
         <v>33</v>
       </c>
       <c r="R42" s="28"/>
@@ -4412,67 +4216,67 @@
       <c r="AG42" s="28"/>
       <c r="AH42" s="28"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="16">
+    <row r="43" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="20">
-        <v>0.015</v>
-      </c>
-      <c r="D43" t="s" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" ref="F43:Q45" si="0">$C43</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="L43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q43" s="32">
-        <f>$C43</f>
-        <v>0.015</v>
-      </c>
-      <c r="R43" t="s" s="16">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R43" s="16" t="s">
         <v>74</v>
       </c>
       <c r="S43" s="3"/>
@@ -4492,64 +4296,64 @@
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="16">
+    <row r="44" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="20">
         <v>0</v>
       </c>
-      <c r="D44" t="s" s="31">
+      <c r="D44" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q44" s="32">
-        <f>$C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R44" s="3"/>
@@ -4570,8 +4374,8 @@
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="16">
+    <row r="45" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="30"/>
@@ -4579,59 +4383,59 @@
         <f>B10</f>
         <v>1.5</v>
       </c>
-      <c r="D45" t="s" s="31">
+      <c r="D45" s="31" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="L45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="M45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="N45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="O45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="P45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="Q45" s="32">
-        <f>$C45</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="R45" t="s" s="16">
+      <c r="R45" s="16" t="s">
         <v>76</v>
       </c>
       <c r="S45" s="3"/>
@@ -4651,13 +4455,13 @@
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="16">
+    <row r="46" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="11"/>
-      <c r="D46" t="s" s="16">
+      <c r="D46" s="16" t="s">
         <v>78</v>
       </c>
       <c r="E46" s="3"/>
@@ -4691,8 +4495,8 @@
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="16">
+    <row r="47" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B47" s="3"/>
@@ -4729,57 +4533,57 @@
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="16">
+    <row r="48" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" t="s" s="16">
+      <c r="D48" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="95">
         <f>SUM(F48:Q48)</f>
-        <v>6410.891621481180</v>
-      </c>
-      <c r="F48" s="32">
-        <v>296.842578</v>
-      </c>
-      <c r="G48" s="32">
-        <v>490.080192587192</v>
-      </c>
-      <c r="H48" s="32">
-        <v>127.773</v>
-      </c>
-      <c r="I48" s="32">
-        <v>143.15</v>
-      </c>
-      <c r="J48" s="32">
-        <v>155.942468493855</v>
-      </c>
-      <c r="K48" s="32">
-        <v>1304.5</v>
-      </c>
-      <c r="L48" s="32">
-        <v>1094.583</v>
-      </c>
-      <c r="M48" s="32">
-        <v>412.769001315630</v>
-      </c>
-      <c r="N48" s="32">
-        <v>763.506111541034</v>
-      </c>
-      <c r="O48" s="32">
-        <v>555.380078564478</v>
-      </c>
-      <c r="P48" s="32">
-        <v>129.169624</v>
-      </c>
-      <c r="Q48" s="32">
-        <v>937.195566978992</v>
-      </c>
-      <c r="R48" t="s" s="16">
-        <v>61</v>
+        <v>6433.1195979999993</v>
+      </c>
+      <c r="F48" s="95">
+        <v>296.11927500000002</v>
+      </c>
+      <c r="G48" s="95">
+        <v>546.85319300000003</v>
+      </c>
+      <c r="H48" s="95">
+        <v>127.854873</v>
+      </c>
+      <c r="I48" s="95">
+        <v>142.88424499999999</v>
+      </c>
+      <c r="J48" s="95">
+        <v>187.18213700000001</v>
+      </c>
+      <c r="K48" s="95">
+        <v>1298.2450369999999</v>
+      </c>
+      <c r="L48" s="95">
+        <v>1092.0679210000001</v>
+      </c>
+      <c r="M48" s="95">
+        <v>346.87643800000001</v>
+      </c>
+      <c r="N48" s="95">
+        <v>739.60811000000001</v>
+      </c>
+      <c r="O48" s="95">
+        <v>551.28017999999997</v>
+      </c>
+      <c r="P48" s="95">
+        <v>138.55156199999999</v>
+      </c>
+      <c r="Q48" s="95">
+        <v>965.59662700000001</v>
+      </c>
+      <c r="R48" s="96" t="s">
+        <v>171</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4798,48 +4602,48 @@
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" t="s" s="19">
+      <c r="C49" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" t="s" s="19">
+      <c r="F49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G49" t="s" s="19">
+      <c r="G49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H49" t="s" s="19">
+      <c r="H49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I49" t="s" s="19">
+      <c r="I49" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J49" t="s" s="19">
+      <c r="J49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="K49" t="s" s="19">
+      <c r="K49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L49" t="s" s="19">
+      <c r="L49" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M49" t="s" s="19">
+      <c r="M49" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N49" t="s" s="19">
+      <c r="N49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O49" t="s" s="19">
+      <c r="O49" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="P49" t="s" s="19">
+      <c r="P49" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Q49" t="s" s="19">
+      <c r="Q49" s="19" t="s">
         <v>33</v>
       </c>
       <c r="R49" s="2"/>
@@ -4860,11 +4664,11 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
     </row>
-    <row r="50" ht="18.3" customHeight="1">
-      <c r="A50" t="s" s="34">
+    <row r="50" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s" s="35">
+      <c r="B50" s="35" t="s">
         <v>85</v>
       </c>
       <c r="C50" s="6"/>
@@ -4902,68 +4706,68 @@
       <c r="AG50" s="38"/>
       <c r="AH50" s="39"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" t="s" s="23">
+    <row r="51" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="40">
         <f>B11</f>
-        <v>0.00175438019516161</v>
-      </c>
-      <c r="D51" t="s" s="23">
+        <v>1.75438019516161E-3</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="33">
-        <f>IF($J$50=0,$C51,F119)</f>
+        <f t="shared" ref="F51:Q51" si="1">IF($J$50=0,$C51,F119)</f>
         <v>0</v>
       </c>
       <c r="G51" s="33">
-        <f>IF($J$50=0,$C51,G119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" s="33">
-        <f>IF($J$50=0,$C51,H119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="33">
-        <f>IF($J$50=0,$C51,I119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51" s="33">
-        <f>IF($J$50=0,$C51,J119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51" s="33">
-        <f>IF($J$50=0,$C51,K119)</f>
-        <v>0.078458281280447</v>
+        <f t="shared" si="1"/>
+        <v>7.8458281280447004E-2</v>
       </c>
       <c r="L51" s="33">
-        <f>IF($J$50=0,$C51,L119)</f>
-        <v>0.438521282504637</v>
+        <f t="shared" si="1"/>
+        <v>0.43852128250463701</v>
       </c>
       <c r="M51" s="33">
-        <f>IF($J$50=0,$C51,M119)</f>
-        <v>0.277989263814899</v>
+        <f t="shared" si="1"/>
+        <v>0.27798926381489902</v>
       </c>
       <c r="N51" s="33">
-        <f>IF($J$50=0,$C51,N119)</f>
-        <v>0.340973731427736</v>
+        <f t="shared" si="1"/>
+        <v>0.34097373142773602</v>
       </c>
       <c r="O51" s="33">
-        <f>IF($J$50=0,$C51,O119)</f>
-        <v>0.0608985905985258</v>
+        <f t="shared" si="1"/>
+        <v>6.0898590598525801E-2</v>
       </c>
       <c r="P51" s="33">
-        <f>IF($J$50=0,$C51,P119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q51" s="33">
-        <f>IF($J$50=0,$C51,Q119)</f>
-        <v>0.17551222871918</v>
-      </c>
-      <c r="R51" t="s" s="23">
+        <f t="shared" si="1"/>
+        <v>0.17551222871918001</v>
+      </c>
+      <c r="R51" s="23" t="s">
         <v>88</v>
       </c>
       <c r="S51" s="11"/>
@@ -4983,68 +4787,68 @@
       <c r="AG51" s="11"/>
       <c r="AH51" s="11"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" t="s" s="16">
+    <row r="52" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="41">
         <f>B12</f>
-        <v>0.00225921075317752</v>
-      </c>
-      <c r="D52" t="s" s="16">
+        <v>2.2592107531775201E-3</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="41">
-        <f>IF($J$50=0,$C52,F120)</f>
-        <v>0.141412610708488</v>
+        <f t="shared" ref="F52:Q52" si="2">IF($J$50=0,$C52,F120)</f>
+        <v>0.14141261070848801</v>
       </c>
       <c r="G52" s="41">
-        <f>IF($J$50=0,$C52,G120)</f>
-        <v>0.159108470735029</v>
+        <f t="shared" si="2"/>
+        <v>0.15910847073502901</v>
       </c>
       <c r="H52" s="41">
-        <f>IF($J$50=0,$C52,H120)</f>
+        <f t="shared" si="2"/>
         <v>0.161723439076086</v>
       </c>
       <c r="I52" s="41">
-        <f>IF($J$50=0,$C52,I120)</f>
+        <f t="shared" si="2"/>
         <v>0.1150584430576</v>
       </c>
       <c r="J52" s="41">
-        <f>IF($J$50=0,$C52,J120)</f>
-        <v>0.130472438862211</v>
+        <f t="shared" si="2"/>
+        <v>0.13047243886221099</v>
       </c>
       <c r="K52" s="41">
-        <f>IF($J$50=0,$C52,K120)</f>
-        <v>0.125893028300915</v>
+        <f t="shared" si="2"/>
+        <v>0.12589302830091501</v>
       </c>
       <c r="L52" s="41">
-        <f>IF($J$50=0,$C52,L120)</f>
+        <f t="shared" si="2"/>
         <v>0.16887308347048</v>
       </c>
       <c r="M52" s="41">
-        <f>IF($J$50=0,$C52,M120)</f>
-        <v>0.158598557116346</v>
+        <f t="shared" si="2"/>
+        <v>0.15859855711634599</v>
       </c>
       <c r="N52" s="41">
-        <f>IF($J$50=0,$C52,N120)</f>
+        <f t="shared" si="2"/>
         <v>0.198320367510081</v>
       </c>
       <c r="O52" s="41">
-        <f>IF($J$50=0,$C52,O120)</f>
-        <v>0.13454323082345</v>
+        <f t="shared" si="2"/>
+        <v>0.13454323082344999</v>
       </c>
       <c r="P52" s="41">
-        <f>IF($J$50=0,$C52,P120)</f>
-        <v>0.156391501618675</v>
+        <f t="shared" si="2"/>
+        <v>0.15639150161867499</v>
       </c>
       <c r="Q52" s="41">
-        <f>IF($J$50=0,$C52,Q120)</f>
+        <f t="shared" si="2"/>
         <v>0.17344211485103</v>
       </c>
-      <c r="R52" t="s" s="16">
+      <c r="R52" s="16" t="s">
         <v>90</v>
       </c>
       <c r="S52" s="3"/>
@@ -5064,8 +4868,8 @@
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" t="s" s="16">
+    <row r="53" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="3"/>
@@ -5073,59 +4877,59 @@
         <f>B13</f>
         <v>2</v>
       </c>
-      <c r="D53" t="s" s="16">
+      <c r="D53" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="32">
-        <f>IF($J$50=0,$C53,F121)</f>
+        <f t="shared" ref="F53:Q53" si="3">IF($J$50=0,$C53,F121)</f>
         <v>2</v>
       </c>
       <c r="G53" s="32">
-        <f>IF($J$50=0,$C53,G121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H53" s="32">
-        <f>IF($J$50=0,$C53,H121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I53" s="32">
-        <f>IF($J$50=0,$C53,I121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J53" s="32">
-        <f>IF($J$50=0,$C53,J121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K53" s="32">
-        <f>IF($J$50=0,$C53,K121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L53" s="32">
-        <f>IF($J$50=0,$C53,L121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M53" s="32">
-        <f>IF($J$50=0,$C53,M121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N53" s="32">
-        <f>IF($J$50=0,$C53,N121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O53" s="32">
-        <f>IF($J$50=0,$C53,O121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P53" s="32">
-        <f>IF($J$50=0,$C53,P121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q53" s="32">
-        <f>IF($J$50=0,$C53,Q121)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R53" t="s" s="16">
+      <c r="R53" s="16" t="s">
         <v>90</v>
       </c>
       <c r="S53" s="3"/>
@@ -5145,8 +4949,8 @@
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" t="s" s="16">
+    <row r="54" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="3"/>
@@ -5154,56 +4958,56 @@
         <f>B31</f>
         <v>4</v>
       </c>
-      <c r="D54" t="s" s="16">
+      <c r="D54" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="32">
-        <f>IF($J$50=0,$C54,F122)</f>
+        <f t="shared" ref="F54:Q54" si="4">IF($J$50=0,$C54,F122)</f>
         <v>4</v>
       </c>
       <c r="G54" s="32">
-        <f>IF($J$50=0,$C54,G122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H54" s="32">
-        <f>IF($J$50=0,$C54,H122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I54" s="32">
-        <f>IF($J$50=0,$C54,I122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J54" s="32">
-        <f>IF($J$50=0,$C54,J122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K54" s="32">
-        <f>IF($J$50=0,$C54,K122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L54" s="32">
-        <f>IF($J$50=0,$C54,L122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M54" s="32">
-        <f>IF($J$50=0,$C54,M122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N54" s="32">
-        <f>IF($J$50=0,$C54,N122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O54" s="32">
-        <f>IF($J$50=0,$C54,O122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P54" s="32">
-        <f>IF($J$50=0,$C54,P122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q54" s="32">
-        <f>IF($J$50=0,$C54,Q122)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R54" s="3"/>
@@ -5224,8 +5028,8 @@
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" t="s" s="16">
+    <row r="55" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="3"/>
@@ -5233,56 +5037,56 @@
         <f>B32</f>
         <v>6</v>
       </c>
-      <c r="D55" t="s" s="16">
+      <c r="D55" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="32">
-        <f>IF($J$50=0,$C55,F123)</f>
+        <f t="shared" ref="F55:Q55" si="5">IF($J$50=0,$C55,F123)</f>
         <v>6</v>
       </c>
       <c r="G55" s="32">
-        <f>IF($J$50=0,$C55,G123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H55" s="32">
-        <f>IF($J$50=0,$C55,H123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I55" s="32">
-        <f>IF($J$50=0,$C55,I123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J55" s="32">
-        <f>IF($J$50=0,$C55,J123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K55" s="32">
-        <f>IF($J$50=0,$C55,K123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="L55" s="32">
-        <f>IF($J$50=0,$C55,L123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="M55" s="32">
-        <f>IF($J$50=0,$C55,M123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N55" s="32">
-        <f>IF($J$50=0,$C55,N123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="O55" s="32">
-        <f>IF($J$50=0,$C55,O123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P55" s="32">
-        <f>IF($J$50=0,$C55,P123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q55" s="32">
-        <f>IF($J$50=0,$C55,Q123)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="R55" s="3"/>
@@ -5303,67 +5107,67 @@
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" t="s" s="16">
+    <row r="56" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B56" t="s" s="16">
+      <c r="B56" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="32">
         <f>B33</f>
         <v>0</v>
       </c>
-      <c r="D56" t="s" s="16">
+      <c r="D56" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="32">
-        <f>IF($J$50=0,$C56,F124)</f>
+        <f t="shared" ref="F56:Q56" si="6">IF($J$50=0,$C56,F124)</f>
         <v>0</v>
       </c>
       <c r="G56" s="32">
-        <f>IF($J$50=0,$C56,G124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H56" s="32">
-        <f>IF($J$50=0,$C56,H124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I56" s="32">
-        <f>IF($J$50=0,$C56,I124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J56" s="32">
-        <f>IF($J$50=0,$C56,J124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K56" s="32">
-        <f>IF($J$50=0,$C56,K124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L56" s="32">
-        <f>IF($J$50=0,$C56,L124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M56" s="32">
-        <f>IF($J$50=0,$C56,M124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N56" s="32">
-        <f>IF($J$50=0,$C56,N124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O56" s="32">
-        <f>IF($J$50=0,$C56,O124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P56" s="32">
-        <f>IF($J$50=0,$C56,P124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q56" s="32">
-        <f>IF($J$50=0,$C56,Q124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R56" s="3"/>
@@ -5384,8 +5188,8 @@
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
     </row>
-    <row r="57" ht="18.3" customHeight="1">
-      <c r="A57" t="s" s="25">
+    <row r="57" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="3"/>
@@ -5393,7 +5197,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="32">
-        <v>1259.227462027180</v>
+        <v>1259.2274620271801</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -5424,67 +5228,67 @@
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" t="s" s="16">
+    <row r="58" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="30"/>
       <c r="C58" s="24">
         <v>1.26</v>
       </c>
-      <c r="D58" t="s" s="31">
+      <c r="D58" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="42">
-        <f>$C$58*F59</f>
-        <v>1.134</v>
+        <f t="shared" ref="F58:Q58" si="7">$C$58*F59</f>
+        <v>1.1340000000000001</v>
       </c>
       <c r="G58" s="42">
-        <f>$C$58*G59</f>
-        <v>1.764</v>
+        <f t="shared" si="7"/>
+        <v>1.7639999999999998</v>
       </c>
       <c r="H58" s="42">
-        <f>$C$58*H59</f>
-        <v>1.764</v>
+        <f t="shared" si="7"/>
+        <v>1.7639999999999998</v>
       </c>
       <c r="I58" s="42">
-        <f>$C$58*I59</f>
-        <v>0.756</v>
+        <f t="shared" si="7"/>
+        <v>0.75600000000000001</v>
       </c>
       <c r="J58" s="42">
-        <f>$C$58*J59</f>
-        <v>0.756</v>
+        <f t="shared" si="7"/>
+        <v>0.75600000000000001</v>
       </c>
       <c r="K58" s="42">
-        <f>$C$58*K59</f>
-        <v>0.882</v>
+        <f t="shared" si="7"/>
+        <v>0.8819999999999999</v>
       </c>
       <c r="L58" s="42">
-        <f>$C$58*L59</f>
-        <v>1.386</v>
+        <f t="shared" si="7"/>
+        <v>1.3860000000000001</v>
       </c>
       <c r="M58" s="42">
-        <f>$C$58*M59</f>
+        <f t="shared" si="7"/>
         <v>1.26</v>
       </c>
       <c r="N58" s="42">
-        <f>$C$58*N59</f>
-        <v>1.386</v>
+        <f t="shared" si="7"/>
+        <v>1.3860000000000001</v>
       </c>
       <c r="O58" s="42">
-        <f>$C$58*O59</f>
-        <v>1.638</v>
+        <f t="shared" si="7"/>
+        <v>1.6380000000000001</v>
       </c>
       <c r="P58" s="42">
-        <f>$C$58*P59</f>
-        <v>1.386</v>
+        <f t="shared" si="7"/>
+        <v>1.3860000000000001</v>
       </c>
       <c r="Q58" s="42">
-        <f>$C$58*Q59</f>
+        <f t="shared" si="7"/>
         <v>1.512</v>
       </c>
-      <c r="R58" t="s" s="16">
+      <c r="R58" s="16" t="s">
         <v>95</v>
       </c>
       <c r="S58" s="3"/>
@@ -5504,13 +5308,13 @@
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" t="s" s="16">
+    <row r="59" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B59" s="30"/>
       <c r="C59" s="6"/>
-      <c r="D59" t="s" s="31">
+      <c r="D59" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E59" s="30"/>
@@ -5533,19 +5337,19 @@
         <v>0.7</v>
       </c>
       <c r="L59" s="43">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M59" s="43">
         <v>1</v>
       </c>
       <c r="N59" s="43">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O59" s="43">
         <v>1.3</v>
       </c>
       <c r="P59" s="43">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q59" s="43">
         <v>1.2</v>
@@ -5568,64 +5372,64 @@
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" t="s" s="16">
+    <row r="60" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="20">
         <v>0.1</v>
       </c>
-      <c r="D60" t="s" s="31">
+      <c r="D60" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="33">
-        <f>$C$60</f>
+        <f t="shared" ref="F60:Q60" si="8">$C$60</f>
         <v>0.1</v>
       </c>
       <c r="G60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="H60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="I60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="J60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="K60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="L60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="M60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="N60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="O60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="P60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="Q60" s="33">
-        <f>$C$60</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="R60" s="3"/>
@@ -5646,67 +5450,67 @@
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" t="s" s="16">
+    <row r="61" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="20">
         <v>0.05</v>
       </c>
-      <c r="D61" t="s" s="31">
+      <c r="D61" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="32">
-        <f>$C$61</f>
+        <f t="shared" ref="F61:Q61" si="9">$C$61</f>
         <v>0.05</v>
       </c>
       <c r="G61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="H61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="I61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="J61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="K61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="L61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="M61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="N61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="O61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="P61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q61" s="32">
-        <f>$C$61</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="R61" t="s" s="16">
+      <c r="R61" s="16" t="s">
         <v>95</v>
       </c>
       <c r="S61" s="3"/>
@@ -5726,7 +5530,7 @@
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="44"/>
@@ -5762,15 +5566,15 @@
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" t="s" s="16">
+    <row r="63" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="20">
         <v>2.8</v>
       </c>
-      <c r="D63" t="s" s="31">
+      <c r="D63" s="31" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="3"/>
@@ -5786,7 +5590,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" t="s" s="16">
+      <c r="R63" s="16" t="s">
         <v>95</v>
       </c>
       <c r="S63" s="3"/>
@@ -5806,8 +5610,8 @@
       <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
-      <c r="A64" t="s" s="16">
+    <row r="64" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="3"/>
@@ -5815,59 +5619,59 @@
         <f>B16</f>
         <v>2250</v>
       </c>
-      <c r="D64" t="s" s="16">
+      <c r="D64" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="46">
-        <f>$C64</f>
+        <f t="shared" ref="F64:Q64" si="10">$C64</f>
         <v>2250</v>
       </c>
       <c r="G64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="H64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="I64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="J64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="K64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="L64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="M64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="N64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="O64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="P64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="Q64" s="46">
-        <f>$C64</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
-      <c r="R64" t="s" s="16">
+      <c r="R64" s="16" t="s">
         <v>101</v>
       </c>
       <c r="S64" s="3"/>
@@ -5887,15 +5691,15 @@
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
-      <c r="A65" t="s" s="16">
+    <row r="65" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B65" s="30"/>
       <c r="C65" s="20">
         <v>1</v>
       </c>
-      <c r="D65" t="s" s="31">
+      <c r="D65" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E65" s="30"/>
@@ -5935,7 +5739,7 @@
       <c r="Q65" s="20">
         <v>1</v>
       </c>
-      <c r="R65" t="s" s="31">
+      <c r="R65" s="31" t="s">
         <v>103</v>
       </c>
       <c r="S65" s="3"/>
@@ -5955,8 +5759,8 @@
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
     </row>
-    <row r="66" ht="18.3" customHeight="1">
-      <c r="A66" t="s" s="25">
+    <row r="66" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B66" s="3"/>
@@ -5993,59 +5797,59 @@
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" t="s" s="16">
+    <row r="67" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B67" s="30"/>
       <c r="C67" s="20">
         <v>7957.7</v>
       </c>
-      <c r="D67" t="s" s="31">
+      <c r="D67" s="31" t="s">
         <v>64</v>
       </c>
       <c r="E67" s="32">
         <f>SUM(F67:Q67)</f>
-        <v>34.83431</v>
-      </c>
-      <c r="F67" s="47">
-        <v>6.382134</v>
-      </c>
-      <c r="G67" s="47">
-        <v>4.851817</v>
-      </c>
-      <c r="H67" s="47">
-        <v>1.330556</v>
-      </c>
-      <c r="I67" s="47">
-        <v>1.765615</v>
-      </c>
-      <c r="J67" s="47">
+        <v>34.834309999999995</v>
+      </c>
+      <c r="F67" s="94">
+        <v>6.3821339999999998</v>
+      </c>
+      <c r="G67" s="94">
+        <v>4.8518169999999996</v>
+      </c>
+      <c r="H67" s="94">
+        <v>1.3305560000000001</v>
+      </c>
+      <c r="I67" s="94">
+        <v>1.7656149999999999</v>
+      </c>
+      <c r="J67" s="94">
         <v>1.169656</v>
       </c>
-      <c r="K67" s="47">
-        <v>7.138381</v>
-      </c>
-      <c r="L67" s="47">
+      <c r="K67" s="94">
+        <v>7.1383809999999999</v>
+      </c>
+      <c r="L67" s="94">
         <v>2.035355</v>
       </c>
-      <c r="M67" s="47">
+      <c r="M67" s="94">
         <v>1.605064</v>
       </c>
-      <c r="N67" s="47">
-        <v>1.829293</v>
-      </c>
-      <c r="O67" s="47">
-        <v>2.417561</v>
-      </c>
-      <c r="P67" s="47">
-        <v>2.043448</v>
-      </c>
-      <c r="Q67" s="47">
-        <v>2.26543</v>
-      </c>
-      <c r="R67" t="s" s="16">
-        <v>106</v>
+      <c r="N67" s="94">
+        <v>1.8292930000000001</v>
+      </c>
+      <c r="O67" s="94">
+        <v>2.4175610000000001</v>
+      </c>
+      <c r="P67" s="94">
+        <v>2.0434480000000002</v>
+      </c>
+      <c r="Q67" s="94">
+        <v>2.2654299999999998</v>
+      </c>
+      <c r="R67" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
@@ -6064,15 +5868,15 @@
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" t="s" s="16">
-        <v>107</v>
+    <row r="68" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="20">
-        <v>0.005</v>
-      </c>
-      <c r="D68" t="s" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D68" s="31" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="3"/>
@@ -6088,8 +5892,8 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" t="s" s="16">
-        <v>108</v>
+      <c r="R68" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
@@ -6108,66 +5912,66 @@
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" t="s" s="16">
-        <v>109</v>
+    <row r="69" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="44"/>
-      <c r="D69" t="s" s="16">
+      <c r="D69" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="42">
-        <f>F67/F37</f>
-        <v>0.51477539712561</v>
+        <f t="shared" ref="F69:Q69" si="11">F67/F37</f>
+        <v>0.49915586954610086</v>
       </c>
       <c r="G69" s="42">
-        <f>G67/G37</f>
-        <v>0.37232718896801</v>
+        <f t="shared" si="11"/>
+        <v>0.33423712378467751</v>
       </c>
       <c r="H69" s="42">
-        <f>H67/H37</f>
-        <v>0.343787710098562</v>
+        <f t="shared" si="11"/>
+        <v>0.34378771009856202</v>
       </c>
       <c r="I69" s="42">
-        <f>I67/I37</f>
-        <v>1.03984689679522</v>
+        <f t="shared" si="11"/>
+        <v>0.87486405471899931</v>
       </c>
       <c r="J69" s="42">
-        <f>J67/J37</f>
-        <v>1.44878634191485</v>
+        <f t="shared" si="11"/>
+        <v>0.79390589241543041</v>
       </c>
       <c r="K69" s="42">
-        <f>K67/K37</f>
-        <v>1.33847168209287</v>
+        <f t="shared" si="11"/>
+        <v>0.95422474188572937</v>
       </c>
       <c r="L69" s="42">
-        <f>L67/L37</f>
-        <v>0.833877713117735</v>
+        <f t="shared" si="11"/>
+        <v>0.63101215676723588</v>
       </c>
       <c r="M69" s="42">
         <f>M67/M37</f>
-        <v>0.46121159032106</v>
+        <v>0.43130207742973797</v>
       </c>
       <c r="N69" s="42">
-        <f>N67/N37</f>
-        <v>1.40657486512113</v>
+        <f t="shared" si="11"/>
+        <v>1.1423417815406254</v>
       </c>
       <c r="O69" s="42">
-        <f>O67/O37</f>
-        <v>0.530344103181122</v>
+        <f t="shared" si="11"/>
+        <v>0.44827360463240717</v>
       </c>
       <c r="P69" s="42">
-        <f>P67/P37</f>
-        <v>0.531864013424193</v>
+        <f t="shared" si="11"/>
+        <v>0.49301828530666197</v>
       </c>
       <c r="Q69" s="42">
-        <f>Q67/Q37</f>
-        <v>0.864935759705287</v>
-      </c>
-      <c r="R69" t="s" s="16">
-        <v>110</v>
+        <f t="shared" si="11"/>
+        <v>0.55282364291006292</v>
+      </c>
+      <c r="R69" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
@@ -6186,16 +5990,16 @@
       <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" t="s" s="16">
-        <v>111</v>
+    <row r="70" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="B70" s="30"/>
       <c r="C70" s="24">
         <f>SUM(F70:Q70)</f>
-        <v>1.6</v>
-      </c>
-      <c r="D70" t="s" s="31">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="D70" s="31" t="s">
         <v>64</v>
       </c>
       <c r="E70" s="30"/>
@@ -6235,8 +6039,8 @@
       <c r="Q70" s="20">
         <v>0.7</v>
       </c>
-      <c r="R70" t="s" s="31">
-        <v>112</v>
+      <c r="R70" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -6255,64 +6059,64 @@
       <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
-      <c r="A71" t="s" s="16">
-        <v>113</v>
+    <row r="71" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="B71" s="30"/>
       <c r="C71" s="20">
         <v>0.2</v>
       </c>
-      <c r="D71" t="s" s="31">
+      <c r="D71" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="33">
-        <f>$C$71</f>
+        <f t="shared" ref="F71:Q71" si="12">$C$71</f>
         <v>0.2</v>
       </c>
       <c r="G71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="H71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="I71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="J71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="K71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="L71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="M71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="N71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="O71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="P71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="Q71" s="33">
-        <f>$C$71</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="R71" s="3"/>
@@ -6333,9 +6137,9 @@
       <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
-      <c r="A72" t="s" s="16">
-        <v>114</v>
+    <row r="72" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="11"/>
@@ -6371,16 +6175,16 @@
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
-      <c r="A73" t="s" s="16">
+    <row r="73" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="48">
+      <c r="B73" s="47">
         <f>B17</f>
         <v>6000</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" t="s" s="16">
+      <c r="D73" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E73" s="3"/>
@@ -6396,8 +6200,8 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-      <c r="R73" t="s" s="16">
-        <v>115</v>
+      <c r="R73" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
@@ -6416,9 +6220,9 @@
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
     </row>
-    <row r="74" ht="18.3" customHeight="1">
-      <c r="A74" t="s" s="25">
-        <v>116</v>
+    <row r="74" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
@@ -6454,16 +6258,16 @@
       <c r="AG74" s="3"/>
       <c r="AH74" s="3"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
-      <c r="A75" t="s" s="14">
-        <v>117</v>
+    <row r="75" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="B75" s="20">
         <v>787</v>
       </c>
       <c r="C75" s="7"/>
-      <c r="D75" t="s" s="16">
-        <v>118</v>
+      <c r="D75" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -6478,7 +6282,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" t="s" s="16">
+      <c r="R75" s="16" t="s">
         <v>61</v>
       </c>
       <c r="S75" s="3"/>
@@ -6498,9 +6302,9 @@
       <c r="AG75" s="3"/>
       <c r="AH75" s="3"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
-      <c r="A76" t="s" s="14">
-        <v>119</v>
+    <row r="76" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="B76" s="20">
         <v>829</v>
@@ -6538,16 +6342,16 @@
       <c r="AG76" s="3"/>
       <c r="AH76" s="3"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
-      <c r="A77" t="s" s="14">
-        <v>120</v>
+    <row r="77" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="B77" s="20">
         <v>1600</v>
       </c>
       <c r="C77" s="7"/>
-      <c r="D77" t="s" s="16">
-        <v>121</v>
+      <c r="D77" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -6562,8 +6366,8 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" t="s" s="16">
-        <v>122</v>
+      <c r="R77" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
@@ -6582,16 +6386,16 @@
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
     </row>
-    <row r="78" ht="16" customHeight="1">
-      <c r="A78" t="s" s="14">
-        <v>123</v>
+    <row r="78" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="B78" s="20">
         <v>10010</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" t="s" s="16">
-        <v>121</v>
+      <c r="D78" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -6606,8 +6410,8 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" t="s" s="16">
-        <v>122</v>
+      <c r="R78" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
@@ -6626,9 +6430,9 @@
       <c r="AG78" s="3"/>
       <c r="AH78" s="3"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
-      <c r="A79" t="s" s="16">
-        <v>124</v>
+    <row r="79" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="B79" s="44"/>
       <c r="C79" s="3"/>
@@ -6664,16 +6468,16 @@
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
     </row>
-    <row r="80" ht="16" customHeight="1">
-      <c r="A80" t="s" s="14">
-        <v>125</v>
-      </c>
-      <c r="B80" s="49">
+    <row r="80" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="48">
         <f>100-B82</f>
         <v>88</v>
       </c>
       <c r="C80" s="7"/>
-      <c r="D80" t="s" s="16">
+      <c r="D80" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E80" s="30"/>
@@ -6689,8 +6493,8 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" t="s" s="16">
-        <v>126</v>
+      <c r="R80" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -6709,32 +6513,32 @@
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
-      <c r="A81" t="s" s="14">
-        <v>127</v>
-      </c>
-      <c r="B81" s="49">
+    <row r="81" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="48">
         <f>B87*B82/B88</f>
-        <v>4.704</v>
+        <v>4.7039999999999997</v>
       </c>
       <c r="C81" s="7"/>
-      <c r="D81" t="s" s="16">
+      <c r="D81" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="37"/>
-      <c r="G81" s="50">
+      <c r="G81" s="49">
         <v>2105</v>
       </c>
-      <c r="H81" s="51">
-        <v>265.934090102490</v>
+      <c r="H81" s="50">
+        <v>265.93409010249002</v>
       </c>
       <c r="I81" s="37">
         <v>349.736819201157</v>
       </c>
-      <c r="J81" s="52">
+      <c r="J81" s="51">
         <f>LN(H81/I81)</f>
-        <v>-0.273932429982172</v>
+        <v>-0.27393242998217188</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -6743,8 +6547,8 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-      <c r="R81" t="s" s="16">
-        <v>126</v>
+      <c r="R81" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
@@ -6763,32 +6567,32 @@
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
     </row>
-    <row r="82" ht="16" customHeight="1">
-      <c r="A82" t="s" s="14">
-        <v>128</v>
-      </c>
-      <c r="B82" s="53">
+    <row r="82" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="52">
         <f>B28</f>
         <v>12</v>
       </c>
       <c r="C82" s="7"/>
-      <c r="D82" t="s" s="16">
-        <v>129</v>
+      <c r="D82" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="E82" s="30"/>
       <c r="F82" s="37"/>
-      <c r="G82" s="54">
+      <c r="G82" s="53">
         <v>2305</v>
       </c>
-      <c r="H82" s="51">
-        <v>1094.438759627760</v>
+      <c r="H82" s="50">
+        <v>1094.43875962776</v>
       </c>
       <c r="I82" s="37">
-        <v>1434.211911008690</v>
-      </c>
-      <c r="J82" s="52">
+        <v>1434.2119110086901</v>
+      </c>
+      <c r="J82" s="51">
         <f>LN(H82/I82)</f>
-        <v>-0.270373823830755</v>
+        <v>-0.27037382383075487</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -6797,8 +6601,8 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-      <c r="R82" t="s" s="16">
-        <v>126</v>
+      <c r="R82" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -6817,16 +6621,16 @@
       <c r="AG82" s="3"/>
       <c r="AH82" s="3"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
-      <c r="A83" t="s" s="14">
-        <v>130</v>
-      </c>
-      <c r="B83" s="49">
+    <row r="83" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="48">
         <f>100-B81-B85</f>
-        <v>94.79600000000001</v>
+        <v>94.796000000000006</v>
       </c>
       <c r="C83" s="7"/>
-      <c r="D83" t="s" s="16">
+      <c r="D83" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E83" s="3"/>
@@ -6835,14 +6639,14 @@
         <v>2505</v>
       </c>
       <c r="H83" s="32">
-        <v>2115.728155344320</v>
+        <v>2115.7281553443199</v>
       </c>
       <c r="I83" s="33">
-        <v>3204.261904244290</v>
-      </c>
-      <c r="J83" s="55">
+        <v>3204.2619042442898</v>
+      </c>
+      <c r="J83" s="54">
         <f>LN(H83/I83)</f>
-        <v>-0.415082734029417</v>
+        <v>-0.41508273402941726</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -6851,8 +6655,8 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-      <c r="R83" t="s" s="16">
-        <v>126</v>
+      <c r="R83" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
@@ -6871,16 +6675,16 @@
       <c r="AG83" s="3"/>
       <c r="AH83" s="3"/>
     </row>
-    <row r="84" ht="16" customHeight="1">
-      <c r="A84" t="s" s="14">
-        <v>131</v>
-      </c>
-      <c r="B84" s="49">
+    <row r="84" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="48">
         <f>B85*B88/B89</f>
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C84" s="7"/>
-      <c r="D84" t="s" s="16">
+      <c r="D84" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E84" s="3"/>
@@ -6896,8 +6700,8 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" t="s" s="16">
-        <v>126</v>
+      <c r="R84" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
@@ -6916,15 +6720,15 @@
       <c r="AG84" s="3"/>
       <c r="AH84" s="3"/>
     </row>
-    <row r="85" ht="16" customHeight="1">
-      <c r="A85" t="s" s="14">
-        <v>132</v>
-      </c>
-      <c r="B85" s="53">
+    <row r="85" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="52">
         <v>0.5</v>
       </c>
       <c r="C85" s="7"/>
-      <c r="D85" t="s" s="16">
+      <c r="D85" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E85" s="3"/>
@@ -6940,8 +6744,8 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" t="s" s="16">
-        <v>126</v>
+      <c r="R85" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
@@ -6960,16 +6764,16 @@
       <c r="AG85" s="3"/>
       <c r="AH85" s="3"/>
     </row>
-    <row r="86" ht="16" customHeight="1">
-      <c r="A86" t="s" s="14">
-        <v>133</v>
-      </c>
-      <c r="B86" s="49">
+    <row r="86" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="48">
         <f>100-B84</f>
-        <v>99.925</v>
+        <v>99.924999999999997</v>
       </c>
       <c r="C86" s="7"/>
-      <c r="D86" t="s" s="16">
+      <c r="D86" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E86" s="3"/>
@@ -6985,8 +6789,8 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-      <c r="R86" t="s" s="16">
-        <v>126</v>
+      <c r="R86" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
@@ -7005,15 +6809,15 @@
       <c r="AG86" s="3"/>
       <c r="AH86" s="3"/>
     </row>
-    <row r="87" ht="16" customHeight="1">
-      <c r="A87" t="s" s="56">
-        <v>134</v>
+    <row r="87" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="B87" s="20">
         <v>588</v>
       </c>
       <c r="C87" s="7"/>
-      <c r="D87" t="s" s="16">
+      <c r="D87" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E87" s="3"/>
@@ -7047,15 +6851,15 @@
       <c r="AG87" s="3"/>
       <c r="AH87" s="3"/>
     </row>
-    <row r="88" ht="16" customHeight="1">
-      <c r="A88" t="s" s="56">
-        <v>135</v>
+    <row r="88" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="55" t="s">
+        <v>134</v>
       </c>
       <c r="B88" s="20">
         <v>1500</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" t="s" s="16">
+      <c r="D88" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E88" s="3"/>
@@ -7089,15 +6893,15 @@
       <c r="AG88" s="3"/>
       <c r="AH88" s="3"/>
     </row>
-    <row r="89" ht="16" customHeight="1">
-      <c r="A89" t="s" s="56">
-        <v>136</v>
+    <row r="89" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="B89" s="20">
         <v>10000</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" t="s" s="16">
+      <c r="D89" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E89" s="3"/>
@@ -7131,9 +6935,9 @@
       <c r="AG89" s="3"/>
       <c r="AH89" s="3"/>
     </row>
-    <row r="90" ht="18.3" customHeight="1">
-      <c r="A90" t="s" s="25">
-        <v>137</v>
+    <row r="90" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="B90" s="44"/>
       <c r="C90" s="3"/>
@@ -7169,16 +6973,16 @@
       <c r="AG90" s="3"/>
       <c r="AH90" s="3"/>
     </row>
-    <row r="91" ht="16" customHeight="1">
-      <c r="A91" t="s" s="14">
-        <v>138</v>
+    <row r="91" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="B91" s="20">
         <v>-0.06</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" t="s" s="16">
-        <v>118</v>
+      <c r="D91" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -7193,7 +6997,7 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-      <c r="R91" t="s" s="16">
+      <c r="R91" s="16" t="s">
         <v>61</v>
       </c>
       <c r="S91" s="3"/>
@@ -7213,16 +7017,16 @@
       <c r="AG91" s="3"/>
       <c r="AH91" s="3"/>
     </row>
-    <row r="92" ht="16" customHeight="1">
-      <c r="A92" t="s" s="14">
-        <v>139</v>
+    <row r="92" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="B92" s="20">
         <v>0.3</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" t="s" s="16">
-        <v>118</v>
+      <c r="D92" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -7237,8 +7041,8 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-      <c r="R92" t="s" s="16">
-        <v>140</v>
+      <c r="R92" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
@@ -7257,15 +7061,15 @@
       <c r="AG92" s="3"/>
       <c r="AH92" s="3"/>
     </row>
-    <row r="93" ht="16" customHeight="1">
-      <c r="A93" t="s" s="14">
-        <v>141</v>
+    <row r="93" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="B93" s="20">
         <v>0.83</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" t="s" s="16">
+      <c r="D93" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E93" s="3"/>
@@ -7281,7 +7085,7 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-      <c r="R93" t="s" s="16">
+      <c r="R93" s="16" t="s">
         <v>61</v>
       </c>
       <c r="S93" s="3"/>
@@ -7301,9 +7105,9 @@
       <c r="AG93" s="3"/>
       <c r="AH93" s="3"/>
     </row>
-    <row r="94" ht="16" customHeight="1">
-      <c r="A94" t="s" s="14">
-        <v>142</v>
+    <row r="94" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="B94" s="20">
         <v>0.98</v>
@@ -7341,15 +7145,15 @@
       <c r="AG94" s="3"/>
       <c r="AH94" s="3"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
-      <c r="A95" t="s" s="14">
-        <v>143</v>
+    <row r="95" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="B95" s="20">
-        <v>0.0068</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" t="s" s="16">
+      <c r="D95" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E95" s="3"/>
@@ -7365,7 +7169,7 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-      <c r="R95" t="s" s="16">
+      <c r="R95" s="16" t="s">
         <v>61</v>
       </c>
       <c r="S95" s="3"/>
@@ -7385,16 +7189,16 @@
       <c r="AG95" s="3"/>
       <c r="AH95" s="3"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
-      <c r="A96" t="s" s="14">
+    <row r="96" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="B96" s="20">
-        <v>0.208</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" t="s" s="16">
-        <v>145</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -7409,8 +7213,8 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-      <c r="R96" t="s" s="16">
-        <v>126</v>
+      <c r="R96" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
@@ -7429,17 +7233,17 @@
       <c r="AG96" s="3"/>
       <c r="AH96" s="3"/>
     </row>
-    <row r="97" ht="16" customHeight="1">
-      <c r="A97" t="s" s="14">
+    <row r="97" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="57">
+      <c r="B97" s="56">
         <f>B18</f>
         <v>3.2</v>
       </c>
       <c r="C97" s="7"/>
-      <c r="D97" t="s" s="16">
-        <v>146</v>
+      <c r="D97" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -7454,8 +7258,8 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-      <c r="R97" t="s" s="16">
-        <v>126</v>
+      <c r="R97" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
@@ -7474,16 +7278,16 @@
       <c r="AG97" s="3"/>
       <c r="AH97" s="3"/>
     </row>
-    <row r="98" ht="16" customHeight="1">
-      <c r="A98" t="s" s="14">
-        <v>147</v>
+    <row r="98" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="B98" s="20">
         <v>3.8</v>
       </c>
       <c r="C98" s="7"/>
-      <c r="D98" t="s" s="16">
-        <v>148</v>
+      <c r="D98" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -7498,8 +7302,8 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-      <c r="R98" t="s" s="16">
-        <v>126</v>
+      <c r="R98" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
@@ -7518,15 +7322,15 @@
       <c r="AG98" s="3"/>
       <c r="AH98" s="3"/>
     </row>
-    <row r="99" ht="16" customHeight="1">
-      <c r="A99" t="s" s="14">
-        <v>149</v>
+    <row r="99" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="B99" s="20">
         <v>0.31</v>
       </c>
       <c r="C99" s="7"/>
-      <c r="D99" t="s" s="16">
+      <c r="D99" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E99" s="3"/>
@@ -7542,8 +7346,8 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-      <c r="R99" t="s" s="16">
-        <v>126</v>
+      <c r="R99" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
@@ -7562,15 +7366,15 @@
       <c r="AG99" s="3"/>
       <c r="AH99" s="3"/>
     </row>
-    <row r="100" ht="16" customHeight="1">
-      <c r="A100" t="s" s="14">
-        <v>150</v>
+    <row r="100" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="B100" s="20">
         <v>0.05</v>
       </c>
       <c r="C100" s="7"/>
-      <c r="D100" t="s" s="16">
+      <c r="D100" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E100" s="3"/>
@@ -7586,8 +7390,8 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-      <c r="R100" t="s" s="16">
-        <v>126</v>
+      <c r="R100" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
@@ -7606,9 +7410,9 @@
       <c r="AG100" s="3"/>
       <c r="AH100" s="3"/>
     </row>
-    <row r="101" ht="16" customHeight="1">
-      <c r="A101" t="s" s="58">
-        <v>151</v>
+    <row r="101" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="57" t="s">
+        <v>150</v>
       </c>
       <c r="B101" s="44"/>
       <c r="C101" s="3"/>
@@ -7644,11 +7448,11 @@
       <c r="AG101" s="3"/>
       <c r="AH101" s="3"/>
     </row>
-    <row r="102" ht="72" customHeight="1">
-      <c r="A102" t="s" s="59">
-        <v>152</v>
-      </c>
-      <c r="B102" s="60">
+    <row r="102" spans="1:34" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="59">
         <v>100</v>
       </c>
       <c r="C102" s="7"/>
@@ -7684,11 +7488,11 @@
       <c r="AG102" s="3"/>
       <c r="AH102" s="3"/>
     </row>
-    <row r="103" ht="57.6" customHeight="1">
-      <c r="A103" t="s" s="59">
-        <v>153</v>
-      </c>
-      <c r="B103" s="60">
+    <row r="103" spans="1:34" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="59">
         <v>12</v>
       </c>
       <c r="C103" s="7"/>
@@ -7724,9 +7528,9 @@
       <c r="AG103" s="3"/>
       <c r="AH103" s="3"/>
     </row>
-    <row r="104" ht="16" customHeight="1">
-      <c r="A104" t="s" s="61">
-        <v>154</v>
+    <row r="104" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="60" t="s">
+        <v>153</v>
       </c>
       <c r="B104" s="44"/>
       <c r="C104" s="3"/>
@@ -7762,16 +7566,16 @@
       <c r="AG104" s="3"/>
       <c r="AH104" s="3"/>
     </row>
-    <row r="105" ht="16" customHeight="1">
-      <c r="A105" t="s" s="14">
-        <v>155</v>
+    <row r="105" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B105" s="20">
         <v>0.5</v>
       </c>
       <c r="C105" s="7"/>
-      <c r="D105" t="s" s="16">
-        <v>156</v>
+      <c r="D105" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -7804,7 +7608,7 @@
       <c r="AG105" s="3"/>
       <c r="AH105" s="3"/>
     </row>
-    <row r="106" ht="16" customHeight="1">
+    <row r="106" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="11"/>
       <c r="C106" s="3"/>
@@ -7840,7 +7644,7 @@
       <c r="AG106" s="3"/>
       <c r="AH106" s="3"/>
     </row>
-    <row r="107" ht="16" customHeight="1">
+    <row r="107" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7876,8 +7680,8 @@
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
     </row>
-    <row r="108" ht="15.3" customHeight="1">
-      <c r="A108" s="62"/>
+    <row r="108" spans="1:34" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="61"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
@@ -7912,8 +7716,8 @@
       <c r="AG108" s="38"/>
       <c r="AH108" s="39"/>
     </row>
-    <row r="109" ht="16" customHeight="1">
-      <c r="A109" s="63"/>
+    <row r="109" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="62"/>
       <c r="B109" s="38"/>
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
@@ -7948,8 +7752,8 @@
       <c r="AG109" s="38"/>
       <c r="AH109" s="39"/>
     </row>
-    <row r="110" ht="16" customHeight="1">
-      <c r="A110" s="63"/>
+    <row r="110" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="62"/>
       <c r="B110" s="38"/>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
@@ -7984,8 +7788,8 @@
       <c r="AG110" s="38"/>
       <c r="AH110" s="39"/>
     </row>
-    <row r="111" ht="16" customHeight="1">
-      <c r="A111" s="63"/>
+    <row r="111" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="62"/>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
@@ -8020,8 +7824,8 @@
       <c r="AG111" s="38"/>
       <c r="AH111" s="39"/>
     </row>
-    <row r="112" ht="16" customHeight="1">
-      <c r="A112" s="63"/>
+    <row r="112" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="62"/>
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
@@ -8056,8 +7860,8 @@
       <c r="AG112" s="38"/>
       <c r="AH112" s="39"/>
     </row>
-    <row r="113" ht="16" customHeight="1">
-      <c r="A113" s="63"/>
+    <row r="113" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="62"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
@@ -8092,8 +7896,8 @@
       <c r="AG113" s="38"/>
       <c r="AH113" s="39"/>
     </row>
-    <row r="114" ht="16" customHeight="1">
-      <c r="A114" s="63"/>
+    <row r="114" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="62"/>
       <c r="B114" s="38"/>
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
@@ -8128,7 +7932,7 @@
       <c r="AG114" s="38"/>
       <c r="AH114" s="39"/>
     </row>
-    <row r="115" ht="16" customHeight="1">
+    <row r="115" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="44"/>
       <c r="C115" s="11"/>
@@ -8164,11 +7968,11 @@
       <c r="AG115" s="11"/>
       <c r="AH115" s="11"/>
     </row>
-    <row r="116" ht="18.3" customHeight="1">
-      <c r="A116" t="s" s="64">
-        <v>157</v>
-      </c>
-      <c r="B116" s="65">
+    <row r="116" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="64">
         <v>1</v>
       </c>
       <c r="C116" s="7"/>
@@ -8204,7 +8008,7 @@
       <c r="AG116" s="3"/>
       <c r="AH116" s="3"/>
     </row>
-    <row r="117" ht="16" customHeight="1">
+    <row r="117" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="11"/>
       <c r="C117" s="3"/>
@@ -8240,48 +8044,48 @@
       <c r="AG117" s="3"/>
       <c r="AH117" s="3"/>
     </row>
-    <row r="118" ht="18.3" customHeight="1">
-      <c r="A118" t="s" s="25">
+    <row r="118" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" t="s" s="16">
+      <c r="F118" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G118" t="s" s="16">
+      <c r="G118" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H118" t="s" s="16">
+      <c r="H118" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I118" t="s" s="16">
+      <c r="I118" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J118" t="s" s="16">
+      <c r="J118" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K118" t="s" s="16">
+      <c r="K118" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L118" t="s" s="16">
+      <c r="L118" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M118" t="s" s="16">
+      <c r="M118" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N118" t="s" s="16">
+      <c r="N118" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O118" t="s" s="16">
+      <c r="O118" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P118" t="s" s="16">
+      <c r="P118" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q118" t="s" s="16">
+      <c r="Q118" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R118" s="3"/>
@@ -8302,8 +8106,8 @@
       <c r="AG118" s="3"/>
       <c r="AH118" s="3"/>
     </row>
-    <row r="119" ht="16" customHeight="1">
-      <c r="A119" t="s" s="16">
+    <row r="119" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B119" s="3"/>
@@ -8311,54 +8115,54 @@
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="32">
-        <f>B146</f>
+        <f t="shared" ref="F119:Q120" si="13">B146</f>
         <v>0</v>
       </c>
       <c r="G119" s="32">
-        <f>C146</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H119" s="32">
-        <f>D146</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I119" s="32">
-        <f>E146</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J119" s="32">
-        <f>F146</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K119" s="32">
-        <f>G146</f>
-        <v>0.078458281280447</v>
+        <f t="shared" si="13"/>
+        <v>7.8458281280447004E-2</v>
       </c>
       <c r="L119" s="32">
-        <f>H146</f>
-        <v>0.438521282504637</v>
+        <f t="shared" si="13"/>
+        <v>0.43852128250463701</v>
       </c>
       <c r="M119" s="32">
-        <f>I146</f>
-        <v>0.277989263814899</v>
+        <f t="shared" si="13"/>
+        <v>0.27798926381489902</v>
       </c>
       <c r="N119" s="32">
-        <f>J146</f>
-        <v>0.340973731427736</v>
+        <f t="shared" si="13"/>
+        <v>0.34097373142773602</v>
       </c>
       <c r="O119" s="32">
-        <f>K146</f>
-        <v>0.0608985905985258</v>
+        <f t="shared" si="13"/>
+        <v>6.0898590598525801E-2</v>
       </c>
       <c r="P119" s="32">
-        <f>L146</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q119" s="32">
-        <f>M146</f>
-        <v>0.17551222871918</v>
-      </c>
-      <c r="R119" t="s" s="16">
+        <f t="shared" si="13"/>
+        <v>0.17551222871918001</v>
+      </c>
+      <c r="R119" s="16" t="s">
         <v>88</v>
       </c>
       <c r="S119" s="3"/>
@@ -8378,8 +8182,8 @@
       <c r="AG119" s="3"/>
       <c r="AH119" s="3"/>
     </row>
-    <row r="120" ht="16" customHeight="1">
-      <c r="A120" t="s" s="16">
+    <row r="120" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B120" s="3"/>
@@ -8387,54 +8191,54 @@
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="32">
-        <f>B147</f>
-        <v>0.141412610708488</v>
+        <f t="shared" si="13"/>
+        <v>0.14141261070848801</v>
       </c>
       <c r="G120" s="32">
-        <f>C147</f>
-        <v>0.159108470735029</v>
+        <f t="shared" si="13"/>
+        <v>0.15910847073502901</v>
       </c>
       <c r="H120" s="32">
-        <f>D147</f>
+        <f t="shared" si="13"/>
         <v>0.161723439076086</v>
       </c>
       <c r="I120" s="32">
-        <f>E147</f>
+        <f t="shared" si="13"/>
         <v>0.1150584430576</v>
       </c>
       <c r="J120" s="32">
-        <f>F147</f>
-        <v>0.130472438862211</v>
+        <f t="shared" si="13"/>
+        <v>0.13047243886221099</v>
       </c>
       <c r="K120" s="32">
-        <f>G147</f>
-        <v>0.125893028300915</v>
+        <f t="shared" si="13"/>
+        <v>0.12589302830091501</v>
       </c>
       <c r="L120" s="32">
-        <f>H147</f>
+        <f t="shared" si="13"/>
         <v>0.16887308347048</v>
       </c>
       <c r="M120" s="32">
-        <f>I147</f>
-        <v>0.158598557116346</v>
+        <f t="shared" si="13"/>
+        <v>0.15859855711634599</v>
       </c>
       <c r="N120" s="32">
-        <f>J147</f>
+        <f t="shared" si="13"/>
         <v>0.198320367510081</v>
       </c>
       <c r="O120" s="32">
-        <f>K147</f>
-        <v>0.13454323082345</v>
+        <f t="shared" si="13"/>
+        <v>0.13454323082344999</v>
       </c>
       <c r="P120" s="32">
-        <f>L147</f>
-        <v>0.156391501618675</v>
+        <f t="shared" si="13"/>
+        <v>0.15639150161867499</v>
       </c>
       <c r="Q120" s="32">
-        <f>M147</f>
+        <f t="shared" si="13"/>
         <v>0.17344211485103</v>
       </c>
-      <c r="R120" t="s" s="16">
+      <c r="R120" s="16" t="s">
         <v>90</v>
       </c>
       <c r="S120" s="3"/>
@@ -8454,8 +8258,8 @@
       <c r="AG120" s="3"/>
       <c r="AH120" s="3"/>
     </row>
-    <row r="121" ht="16" customHeight="1">
-      <c r="A121" t="s" s="16">
+    <row r="121" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B121" s="3"/>
@@ -8498,7 +8302,7 @@
       <c r="Q121" s="32">
         <v>2</v>
       </c>
-      <c r="R121" t="s" s="16">
+      <c r="R121" s="16" t="s">
         <v>90</v>
       </c>
       <c r="S121" s="3"/>
@@ -8518,8 +8322,8 @@
       <c r="AG121" s="3"/>
       <c r="AH121" s="3"/>
     </row>
-    <row r="122" ht="16" customHeight="1">
-      <c r="A122" t="s" s="16">
+    <row r="122" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B122" s="3"/>
@@ -8580,8 +8384,8 @@
       <c r="AG122" s="3"/>
       <c r="AH122" s="3"/>
     </row>
-    <row r="123" ht="16" customHeight="1">
-      <c r="A123" t="s" s="16">
+    <row r="123" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B123" s="3"/>
@@ -8642,62 +8446,62 @@
       <c r="AG123" s="3"/>
       <c r="AH123" s="3"/>
     </row>
-    <row r="124" ht="16" customHeight="1">
-      <c r="A124" t="s" s="16">
+    <row r="124" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B124" t="s" s="16">
+      <c r="B124" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="32">
-        <f>$C$56</f>
+        <f t="shared" ref="F124:Q124" si="14">$C$56</f>
         <v>0</v>
       </c>
       <c r="G124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q124" s="32">
-        <f>$C$56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R124" s="3"/>
@@ -8718,9 +8522,9 @@
       <c r="AG124" s="3"/>
       <c r="AH124" s="3"/>
     </row>
-    <row r="125" ht="16" customHeight="1">
-      <c r="A125" t="s" s="16">
-        <v>158</v>
+    <row r="125" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="B125" s="32">
         <v>10</v>
@@ -8758,9 +8562,9 @@
       <c r="AG125" s="3"/>
       <c r="AH125" s="3"/>
     </row>
-    <row r="126" ht="18.3" customHeight="1">
-      <c r="A126" t="s" s="25">
-        <v>159</v>
+    <row r="126" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -8796,11 +8600,11 @@
       <c r="AG126" s="3"/>
       <c r="AH126" s="3"/>
     </row>
-    <row r="127" ht="18.3" customHeight="1">
-      <c r="A127" t="s" s="25">
-        <v>160</v>
-      </c>
-      <c r="B127" s="66">
+    <row r="127" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="65">
         <v>4</v>
       </c>
       <c r="C127" s="3"/>
@@ -8836,14 +8640,14 @@
       <c r="AG127" s="3"/>
       <c r="AH127" s="3"/>
     </row>
-    <row r="128" ht="16" customHeight="1">
-      <c r="A128" t="s" s="67">
-        <v>161</v>
-      </c>
-      <c r="B128" s="68">
+    <row r="128" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="67">
         <v>2</v>
       </c>
-      <c r="C128" s="69"/>
+      <c r="C128" s="68"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -8876,9 +8680,9 @@
       <c r="AG128" s="3"/>
       <c r="AH128" s="3"/>
     </row>
-    <row r="129" ht="16" customHeight="1">
+    <row r="129" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
-      <c r="B129" s="70"/>
+      <c r="B129" s="69"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8912,22 +8716,22 @@
       <c r="AG129" s="3"/>
       <c r="AH129" s="3"/>
     </row>
-    <row r="130" ht="91.5" customHeight="1">
-      <c r="A130" t="s" s="71">
+    <row r="130" spans="1:34" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B130" s="37"/>
+      <c r="C130" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B130" s="37"/>
-      <c r="C130" t="s" s="31">
+      <c r="D130" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D130" t="s" s="16">
+      <c r="E130" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E130" t="s" s="16">
+      <c r="F130" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="F130" t="s" s="14">
-        <v>166</v>
       </c>
       <c r="G130" s="37"/>
       <c r="H130" s="7"/>
@@ -8958,25 +8762,25 @@
       <c r="AG130" s="3"/>
       <c r="AH130" s="3"/>
     </row>
-    <row r="131" ht="16" customHeight="1">
-      <c r="A131" s="72"/>
-      <c r="B131" t="s" s="73">
+    <row r="131" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="71"/>
+      <c r="B131" s="72" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="32">
         <f>G131</f>
         <v>0</v>
       </c>
-      <c r="D131" s="74">
-        <v>0</v>
-      </c>
-      <c r="E131" s="74">
-        <v>0.000255488166599474</v>
+      <c r="D131" s="73">
+        <v>0</v>
+      </c>
+      <c r="E131" s="73">
+        <v>2.5548816659947402E-4</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
       <c r="J131" s="30"/>
       <c r="K131" s="37"/>
       <c r="L131" s="37"/>
@@ -9003,25 +8807,25 @@
       <c r="AG131" s="3"/>
       <c r="AH131" s="3"/>
     </row>
-    <row r="132" ht="16" customHeight="1">
-      <c r="A132" s="72"/>
-      <c r="B132" t="s" s="31">
+    <row r="132" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="71"/>
+      <c r="B132" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C132" s="32">
         <f>G132</f>
         <v>0</v>
       </c>
-      <c r="D132" s="74">
-        <v>0.00451745114377059</v>
-      </c>
-      <c r="E132" s="74">
+      <c r="D132" s="73">
+        <v>4.5174511437705896E-3</v>
+      </c>
+      <c r="E132" s="73">
         <v>0</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
       <c r="J132" s="30"/>
       <c r="K132" s="37"/>
       <c r="L132" s="37"/>
@@ -9048,25 +8852,25 @@
       <c r="AG132" s="3"/>
       <c r="AH132" s="3"/>
     </row>
-    <row r="133" ht="16" customHeight="1">
+    <row r="133" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
-      <c r="B133" t="s" s="16">
+      <c r="B133" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C133" s="32">
         <f>G136</f>
         <v>0</v>
       </c>
-      <c r="D133" s="74">
-        <v>0.000530389103372272</v>
-      </c>
-      <c r="E133" s="74">
-        <v>5.29014685387398e-05</v>
+      <c r="D133" s="73">
+        <v>5.3038910337227204E-4</v>
+      </c>
+      <c r="E133" s="73">
+        <v>5.2901468538739803E-5</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
       <c r="J133" s="30"/>
       <c r="K133" s="37"/>
       <c r="L133" s="37"/>
@@ -9093,25 +8897,25 @@
       <c r="AG133" s="3"/>
       <c r="AH133" s="3"/>
     </row>
-    <row r="134" ht="16" customHeight="1">
+    <row r="134" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
-      <c r="B134" t="s" s="16">
+      <c r="B134" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C134" s="32">
         <f>G134</f>
         <v>0</v>
       </c>
-      <c r="D134" s="74">
-        <v>0</v>
-      </c>
-      <c r="E134" s="74">
-        <v>4.24040349974414e-05</v>
+      <c r="D134" s="73">
+        <v>0</v>
+      </c>
+      <c r="E134" s="73">
+        <v>4.2404034997441403E-5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="75"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
       <c r="J134" s="30"/>
       <c r="K134" s="37"/>
       <c r="L134" s="37"/>
@@ -9138,25 +8942,25 @@
       <c r="AG134" s="3"/>
       <c r="AH134" s="3"/>
     </row>
-    <row r="135" ht="16" customHeight="1">
-      <c r="A135" s="72"/>
-      <c r="B135" t="s" s="31">
+    <row r="135" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="71"/>
+      <c r="B135" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C135" s="32">
         <f>G135</f>
         <v>0</v>
       </c>
-      <c r="D135" s="74">
-        <v>0.000111001017303677</v>
-      </c>
-      <c r="E135" s="74">
+      <c r="D135" s="73">
+        <v>1.11001017303677E-4</v>
+      </c>
+      <c r="E135" s="73">
         <v>0</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="75"/>
-      <c r="I135" s="75"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
       <c r="J135" s="30"/>
       <c r="K135" s="37"/>
       <c r="L135" s="37"/>
@@ -9183,25 +8987,25 @@
       <c r="AG135" s="3"/>
       <c r="AH135" s="3"/>
     </row>
-    <row r="136" ht="16" customHeight="1">
-      <c r="A136" s="72"/>
-      <c r="B136" t="s" s="31">
+    <row r="136" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="71"/>
+      <c r="B136" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C136" s="32">
         <f>G137</f>
         <v>0</v>
       </c>
-      <c r="D136" s="74">
-        <v>0.0117180377334551</v>
-      </c>
-      <c r="E136" s="74">
-        <v>6.40422608885835e-07</v>
+      <c r="D136" s="73">
+        <v>1.1718037733455099E-2</v>
+      </c>
+      <c r="E136" s="73">
+        <v>6.4042260888583499E-7</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="75"/>
-      <c r="I136" s="75"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
       <c r="J136" s="30"/>
       <c r="K136" s="37"/>
       <c r="L136" s="37"/>
@@ -9228,25 +9032,25 @@
       <c r="AG136" s="3"/>
       <c r="AH136" s="3"/>
     </row>
-    <row r="137" ht="16" customHeight="1">
-      <c r="A137" s="72"/>
-      <c r="B137" t="s" s="31">
+    <row r="137" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="71"/>
+      <c r="B137" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="32">
         <f>G138</f>
         <v>0</v>
       </c>
-      <c r="D137" s="74">
-        <v>0</v>
-      </c>
-      <c r="E137" s="74">
-        <v>0.000254826288122103</v>
+      <c r="D137" s="73">
+        <v>0</v>
+      </c>
+      <c r="E137" s="73">
+        <v>2.5482628812210299E-4</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="75"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
       <c r="J137" s="30"/>
       <c r="K137" s="37"/>
       <c r="L137" s="37"/>
@@ -9273,25 +9077,25 @@
       <c r="AG137" s="3"/>
       <c r="AH137" s="3"/>
     </row>
-    <row r="138" ht="16" customHeight="1">
+    <row r="138" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11"/>
-      <c r="B138" t="s" s="16">
+      <c r="B138" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C138" s="32">
         <f>G139</f>
         <v>0</v>
       </c>
-      <c r="D138" s="74">
-        <v>0.00138122947387099</v>
-      </c>
-      <c r="E138" s="74">
-        <v>3.97099105879408e-07</v>
+      <c r="D138" s="73">
+        <v>1.3812294738709901E-3</v>
+      </c>
+      <c r="E138" s="73">
+        <v>3.9709910587940799E-7</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="75"/>
-      <c r="I138" s="75"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
       <c r="J138" s="30"/>
       <c r="K138" s="37"/>
       <c r="L138" s="37"/>
@@ -9318,25 +9122,25 @@
       <c r="AG138" s="3"/>
       <c r="AH138" s="3"/>
     </row>
-    <row r="139" ht="16" customHeight="1">
+    <row r="139" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
-      <c r="B139" t="s" s="16">
+      <c r="B139" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C139" s="32">
         <f>G140</f>
         <v>0</v>
       </c>
-      <c r="D139" s="74">
-        <v>0.00350894950250226</v>
-      </c>
-      <c r="E139" s="74">
+      <c r="D139" s="73">
+        <v>3.5089495025022602E-3</v>
+      </c>
+      <c r="E139" s="73">
         <v>0</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="75"/>
-      <c r="I139" s="75"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
       <c r="J139" s="30"/>
       <c r="K139" s="37"/>
       <c r="L139" s="37"/>
@@ -9363,25 +9167,25 @@
       <c r="AG139" s="3"/>
       <c r="AH139" s="3"/>
     </row>
-    <row r="140" ht="16" customHeight="1">
+    <row r="140" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
-      <c r="B140" t="s" s="16">
+      <c r="B140" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C140" s="32">
         <f>G141</f>
         <v>0</v>
       </c>
-      <c r="D140" s="74">
-        <v>0</v>
-      </c>
-      <c r="E140" s="74">
-        <v>7.087900655594999e-05</v>
+      <c r="D140" s="73">
+        <v>0</v>
+      </c>
+      <c r="E140" s="73">
+        <v>7.0879006555949994E-5</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="75"/>
-      <c r="I140" s="75"/>
+      <c r="H140" s="74"/>
+      <c r="I140" s="74"/>
       <c r="J140" s="30"/>
       <c r="K140" s="37"/>
       <c r="L140" s="37"/>
@@ -9408,25 +9212,25 @@
       <c r="AG140" s="3"/>
       <c r="AH140" s="3"/>
     </row>
-    <row r="141" ht="16" customHeight="1">
+    <row r="141" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
-      <c r="B141" t="s" s="16">
+      <c r="B141" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C141" s="32">
         <f>G133</f>
         <v>0</v>
       </c>
-      <c r="D141" s="74">
-        <v>0.00616161174631538</v>
-      </c>
-      <c r="E141" s="74">
+      <c r="D141" s="73">
+        <v>6.1616117463153802E-3</v>
+      </c>
+      <c r="E141" s="73">
         <v>0</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="75"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
       <c r="J141" s="30"/>
       <c r="K141" s="37"/>
       <c r="L141" s="37"/>
@@ -9453,25 +9257,25 @@
       <c r="AG141" s="3"/>
       <c r="AH141" s="3"/>
     </row>
-    <row r="142" ht="16" customHeight="1">
+    <row r="142" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
-      <c r="B142" t="s" s="16">
+      <c r="B142" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C142" s="32">
         <f>G142</f>
         <v>0</v>
       </c>
-      <c r="D142" s="74">
-        <v>0</v>
-      </c>
-      <c r="E142" s="74">
-        <v>0.00123857234402547</v>
+      <c r="D142" s="73">
+        <v>0</v>
+      </c>
+      <c r="E142" s="73">
+        <v>1.2385723440254701E-3</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="75"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
       <c r="J142" s="30"/>
       <c r="K142" s="37"/>
       <c r="L142" s="37"/>
@@ -9498,7 +9302,7 @@
       <c r="AG142" s="3"/>
       <c r="AH142" s="3"/>
     </row>
-    <row r="143" ht="16" customHeight="1">
+    <row r="143" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -9534,9 +9338,9 @@
       <c r="AG143" s="3"/>
       <c r="AH143" s="3"/>
     </row>
-    <row r="144" ht="18.3" customHeight="1">
-      <c r="A144" t="s" s="25">
-        <v>167</v>
+    <row r="144" spans="1:34" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -9572,82 +9376,82 @@
       <c r="AG144" s="2"/>
       <c r="AH144" s="3"/>
     </row>
-    <row r="145" ht="16" customHeight="1">
+    <row r="145" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
-      <c r="B145" t="s" s="16">
+      <c r="B145" s="16" t="str">
         <f>B152</f>
-        <v>168</v>
-      </c>
-      <c r="C145" t="s" s="16">
+        <v>US</v>
+      </c>
+      <c r="C145" s="16" t="str">
         <f>B153</f>
-        <v>169</v>
-      </c>
-      <c r="D145" t="s" s="16">
+        <v>EU</v>
+      </c>
+      <c r="D145" s="16" t="str">
         <f>B154</f>
-        <v>170</v>
-      </c>
-      <c r="E145" t="s" s="16">
+        <v>Japan</v>
+      </c>
+      <c r="E145" s="16" t="str">
         <f>B155</f>
-        <v>171</v>
-      </c>
-      <c r="F145" t="s" s="16">
+        <v>Russia</v>
+      </c>
+      <c r="F145" s="16" t="str">
         <f>B156</f>
-        <v>172</v>
-      </c>
-      <c r="G145" t="s" s="16">
+        <v>Eurasia</v>
+      </c>
+      <c r="G145" s="16" t="str">
         <f>B157</f>
-        <v>173</v>
-      </c>
-      <c r="H145" t="s" s="16">
+        <v>China</v>
+      </c>
+      <c r="H145" s="16" t="str">
         <f>B158</f>
-        <v>174</v>
-      </c>
-      <c r="I145" t="s" s="16">
+        <v>India</v>
+      </c>
+      <c r="I145" s="16" t="str">
         <f>B159</f>
-        <v>175</v>
-      </c>
-      <c r="J145" t="s" s="16">
+        <v>Middle East</v>
+      </c>
+      <c r="J145" s="16" t="str">
         <f>B160</f>
-        <v>176</v>
-      </c>
-      <c r="K145" t="s" s="16">
+        <v>Africa</v>
+      </c>
+      <c r="K145" s="16" t="str">
         <f>B161</f>
-        <v>177</v>
-      </c>
-      <c r="L145" t="s" s="16">
+        <v>Latin America</v>
+      </c>
+      <c r="L145" s="16" t="str">
         <f>B162</f>
-        <v>178</v>
-      </c>
-      <c r="M145" t="s" s="14">
+        <v>OHI</v>
+      </c>
+      <c r="M145" s="14" t="str">
         <f>B163</f>
-        <v>179</v>
+        <v>Other</v>
       </c>
       <c r="N145" s="37"/>
       <c r="O145" s="37"/>
       <c r="P145" s="37"/>
       <c r="Q145" s="37"/>
-      <c r="R145" s="76"/>
+      <c r="R145" s="75"/>
       <c r="S145" s="37"/>
       <c r="T145" s="37"/>
-      <c r="U145" s="77">
+      <c r="U145" s="76">
         <f>R155</f>
         <v>0</v>
       </c>
-      <c r="V145" s="76"/>
-      <c r="W145" s="76"/>
-      <c r="X145" s="76"/>
-      <c r="Y145" s="76"/>
-      <c r="Z145" s="76"/>
-      <c r="AA145" s="76"/>
-      <c r="AB145" s="76"/>
-      <c r="AC145" s="76"/>
-      <c r="AD145" s="76"/>
-      <c r="AE145" s="76"/>
-      <c r="AF145" s="76"/>
-      <c r="AG145" s="76"/>
+      <c r="V145" s="75"/>
+      <c r="W145" s="75"/>
+      <c r="X145" s="75"/>
+      <c r="Y145" s="75"/>
+      <c r="Z145" s="75"/>
+      <c r="AA145" s="75"/>
+      <c r="AB145" s="75"/>
+      <c r="AC145" s="75"/>
+      <c r="AD145" s="75"/>
+      <c r="AE145" s="75"/>
+      <c r="AF145" s="75"/>
+      <c r="AG145" s="75"/>
       <c r="AH145" s="7"/>
     </row>
-    <row r="146" ht="16" customHeight="1">
+    <row r="146" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="32">
         <f>C152</f>
@@ -9671,102 +9475,102 @@
       </c>
       <c r="G146" s="32">
         <f>C157</f>
-        <v>0.078458281280447</v>
+        <v>7.8458281280447004E-2</v>
       </c>
       <c r="H146" s="32">
         <f>C158</f>
-        <v>0.438521282504637</v>
+        <v>0.43852128250463701</v>
       </c>
       <c r="I146" s="32">
         <f>C159</f>
-        <v>0.277989263814899</v>
+        <v>0.27798926381489902</v>
       </c>
       <c r="J146" s="32">
         <f>C160</f>
-        <v>0.340973731427736</v>
+        <v>0.34097373142773602</v>
       </c>
       <c r="K146" s="32">
         <f>C161</f>
-        <v>0.0608985905985258</v>
+        <v>6.0898590598525801E-2</v>
       </c>
       <c r="L146" s="32">
         <f>C162</f>
         <v>0</v>
       </c>
-      <c r="M146" s="78">
+      <c r="M146" s="77">
         <f>C163</f>
-        <v>0.17551222871918</v>
+        <v>0.17551222871918001</v>
       </c>
       <c r="N146" s="37"/>
       <c r="O146" s="37"/>
       <c r="P146" s="37"/>
       <c r="Q146" s="37"/>
-      <c r="R146" s="76"/>
+      <c r="R146" s="75"/>
       <c r="S146" s="37"/>
       <c r="T146" s="37"/>
-      <c r="U146" s="79">
+      <c r="U146" s="78">
         <f>R155</f>
         <v>0</v>
       </c>
-      <c r="V146" s="80">
+      <c r="V146" s="79">
         <f>S155</f>
         <v>0</v>
       </c>
-      <c r="W146" s="80">
+      <c r="W146" s="79">
         <f>T155</f>
         <v>0</v>
       </c>
-      <c r="X146" s="80">
+      <c r="X146" s="79">
         <f>S157</f>
         <v>0</v>
       </c>
-      <c r="Y146" s="80">
+      <c r="Y146" s="79">
         <f>S158</f>
         <v>0</v>
       </c>
-      <c r="Z146" s="80">
+      <c r="Z146" s="79">
         <f>S159</f>
         <v>0</v>
       </c>
-      <c r="AA146" s="80">
+      <c r="AA146" s="79">
         <f>S160</f>
         <v>0</v>
       </c>
-      <c r="AB146" s="80">
+      <c r="AB146" s="79">
         <f>S161</f>
         <v>0</v>
       </c>
-      <c r="AC146" s="80">
+      <c r="AC146" s="79">
         <f>S162</f>
         <v>0</v>
       </c>
-      <c r="AD146" s="80">
+      <c r="AD146" s="79">
         <f>S163</f>
         <v>0</v>
       </c>
-      <c r="AE146" s="80">
+      <c r="AE146" s="79">
         <f>S164</f>
         <v>0</v>
       </c>
-      <c r="AF146" s="80">
+      <c r="AF146" s="79">
         <f>S165</f>
         <v>0</v>
       </c>
-      <c r="AG146" s="80">
+      <c r="AG146" s="79">
         <f>S166</f>
         <v>0</v>
       </c>
       <c r="AH146" s="3"/>
     </row>
-    <row r="147" ht="16" customHeight="1">
+    <row r="147" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="32">
         <f>D152</f>
-        <v>0.141412610708488</v>
+        <v>0.14141261070848801</v>
       </c>
       <c r="C147" s="32">
         <f>D153</f>
-        <v>0.159108470735029</v>
+        <v>0.15910847073502901</v>
       </c>
       <c r="D147" s="32">
         <f>D154</f>
@@ -9778,11 +9582,11 @@
       </c>
       <c r="F147" s="32">
         <f>D156</f>
-        <v>0.130472438862211</v>
+        <v>0.13047243886221099</v>
       </c>
       <c r="G147" s="32">
         <f>D157</f>
-        <v>0.125893028300915</v>
+        <v>0.12589302830091501</v>
       </c>
       <c r="H147" s="32">
         <f>D158</f>
@@ -9790,21 +9594,21 @@
       </c>
       <c r="I147" s="32">
         <f>D159</f>
-        <v>0.158598557116346</v>
-      </c>
-      <c r="J147" s="81">
+        <v>0.15859855711634599</v>
+      </c>
+      <c r="J147" s="80">
         <f>D160</f>
         <v>0.198320367510081</v>
       </c>
       <c r="K147" s="32">
         <f>D161</f>
-        <v>0.13454323082345</v>
+        <v>0.13454323082344999</v>
       </c>
       <c r="L147" s="32">
         <f>D162</f>
-        <v>0.156391501618675</v>
-      </c>
-      <c r="M147" s="78">
+        <v>0.15639150161867499</v>
+      </c>
+      <c r="M147" s="77">
         <f>D163</f>
         <v>0.17344211485103</v>
       </c>
@@ -9812,7 +9616,7 @@
       <c r="O147" s="37"/>
       <c r="P147" s="37"/>
       <c r="Q147" s="37"/>
-      <c r="R147" s="76"/>
+      <c r="R147" s="75"/>
       <c r="S147" s="37"/>
       <c r="T147" s="37"/>
       <c r="U147" s="7"/>
@@ -9830,7 +9634,7 @@
       <c r="AG147" s="3"/>
       <c r="AH147" s="3"/>
     </row>
-    <row r="148" ht="16" customHeight="1">
+    <row r="148" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -9839,18 +9643,18 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="82"/>
+      <c r="I148" s="81"/>
       <c r="J148" s="37"/>
-      <c r="K148" s="83"/>
-      <c r="L148" s="81"/>
-      <c r="M148" s="82"/>
+      <c r="K148" s="82"/>
+      <c r="L148" s="80"/>
+      <c r="M148" s="81"/>
       <c r="N148" s="37"/>
       <c r="O148" s="37"/>
-      <c r="P148" s="57"/>
+      <c r="P148" s="56"/>
       <c r="Q148" s="37"/>
-      <c r="R148" s="76"/>
+      <c r="R148" s="75"/>
       <c r="S148" s="37"/>
-      <c r="T148" s="84"/>
+      <c r="T148" s="83"/>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
@@ -9866,11 +9670,11 @@
       <c r="AG148" s="3"/>
       <c r="AH148" s="3"/>
     </row>
-    <row r="149" ht="16" customHeight="1">
+    <row r="149" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" t="s" s="16">
-        <v>180</v>
+      <c r="C149" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9886,8 +9690,8 @@
       <c r="O149" s="37"/>
       <c r="P149" s="37"/>
       <c r="Q149" s="37"/>
-      <c r="R149" s="76"/>
-      <c r="S149" s="85"/>
+      <c r="R149" s="75"/>
+      <c r="S149" s="84"/>
       <c r="T149" s="3"/>
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
@@ -9904,11 +9708,11 @@
       <c r="AG149" s="3"/>
       <c r="AH149" s="3"/>
     </row>
-    <row r="150" ht="16" customHeight="1">
+    <row r="150" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="86"/>
-      <c r="D150" s="86"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -9922,7 +9726,7 @@
       <c r="O150" s="37"/>
       <c r="P150" s="37"/>
       <c r="Q150" s="37"/>
-      <c r="R150" s="85"/>
+      <c r="R150" s="84"/>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
       <c r="U150" s="3"/>
@@ -9940,14 +9744,14 @@
       <c r="AG150" s="3"/>
       <c r="AH150" s="3"/>
     </row>
-    <row r="151" ht="16" customHeight="1">
+    <row r="151" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="87"/>
-      <c r="C151" t="s" s="16">
-        <v>181</v>
-      </c>
-      <c r="D151" t="s" s="16">
-        <v>182</v>
+      <c r="B151" s="86"/>
+      <c r="C151" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="42">
@@ -9956,7 +9760,7 @@
       <c r="G151" s="42">
         <v>1</v>
       </c>
-      <c r="H151" s="88">
+      <c r="H151" s="87">
         <v>2</v>
       </c>
       <c r="I151" s="37">
@@ -9965,7 +9769,7 @@
       <c r="J151" s="37">
         <v>4</v>
       </c>
-      <c r="K151" s="89">
+      <c r="K151" s="88">
         <v>6</v>
       </c>
       <c r="L151" s="37">
@@ -9996,51 +9800,51 @@
       <c r="AG151" s="3"/>
       <c r="AH151" s="3"/>
     </row>
-    <row r="152" ht="16" customHeight="1">
+    <row r="152" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" t="s" s="16">
+      <c r="B152" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C152" s="90">
-        <v>0</v>
-      </c>
-      <c r="D152" s="90">
-        <v>0.141412610708488</v>
+      <c r="C152" s="89">
+        <v>0</v>
+      </c>
+      <c r="D152" s="89">
+        <v>0.14141261070848801</v>
       </c>
       <c r="E152" s="30"/>
-      <c r="F152" s="91">
-        <f>F$151+$D152*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G152" s="91">
-        <f>G$151+$D152*G$151^2</f>
-        <v>1.14141261070849</v>
-      </c>
-      <c r="H152" s="91">
-        <f>H$151+$D152*H$151^2</f>
-        <v>2.56565044283395</v>
-      </c>
-      <c r="I152" s="91">
-        <f>I$151+$D152*I$151^2</f>
-        <v>4.27271349637639</v>
-      </c>
-      <c r="J152" s="91">
-        <f>J$151+$D152*J$151^2</f>
-        <v>6.26260177133581</v>
-      </c>
-      <c r="K152" s="91">
-        <f>K$151+$D152*K$151^2</f>
-        <v>11.0908539855056</v>
-      </c>
-      <c r="L152" s="91">
-        <f>L$151+$D152*L$151^2</f>
-        <v>17.0504070853432</v>
-      </c>
-      <c r="M152" s="91">
-        <f>M$151+$D152*M$151^2</f>
-        <v>24.1412610708488</v>
-      </c>
-      <c r="N152" s="85"/>
+      <c r="F152" s="90">
+        <f t="shared" ref="F152:M152" si="15">F$151+$D152*F$151^2</f>
+        <v>0</v>
+      </c>
+      <c r="G152" s="90">
+        <f t="shared" si="15"/>
+        <v>1.1414126107084881</v>
+      </c>
+      <c r="H152" s="90">
+        <f t="shared" si="15"/>
+        <v>2.5656504428339519</v>
+      </c>
+      <c r="I152" s="90">
+        <f t="shared" si="15"/>
+        <v>4.272713496376392</v>
+      </c>
+      <c r="J152" s="90">
+        <f t="shared" si="15"/>
+        <v>6.2626017713358078</v>
+      </c>
+      <c r="K152" s="90">
+        <f t="shared" si="15"/>
+        <v>11.090853985505568</v>
+      </c>
+      <c r="L152" s="90">
+        <f t="shared" si="15"/>
+        <v>17.050407085343231</v>
+      </c>
+      <c r="M152" s="90">
+        <f t="shared" si="15"/>
+        <v>24.141261070848799</v>
+      </c>
+      <c r="N152" s="84"/>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
       <c r="Q152" s="11"/>
@@ -10062,49 +9866,49 @@
       <c r="AG152" s="3"/>
       <c r="AH152" s="3"/>
     </row>
-    <row r="153" ht="16" customHeight="1">
+    <row r="153" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" t="s" s="16">
+      <c r="B153" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C153" s="90">
-        <v>0</v>
-      </c>
-      <c r="D153" s="90">
-        <v>0.159108470735029</v>
+      <c r="C153" s="89">
+        <v>0</v>
+      </c>
+      <c r="D153" s="89">
+        <v>0.15910847073502901</v>
       </c>
       <c r="E153" s="30"/>
-      <c r="F153" s="91">
-        <f>$C153*F$151+$D153*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G153" s="91">
-        <f>$C153*G$151+$D153*G$151^2</f>
-        <v>0.159108470735029</v>
-      </c>
-      <c r="H153" s="91">
-        <f>$C153*H$151+$D153*H$151^2</f>
-        <v>0.636433882940116</v>
-      </c>
-      <c r="I153" s="91">
-        <f>$C153*I$151+$D153*I$151^2</f>
-        <v>1.43197623661526</v>
-      </c>
-      <c r="J153" s="91">
-        <f>$C153*J$151+$D153*J$151^2</f>
-        <v>2.54573553176046</v>
-      </c>
-      <c r="K153" s="91">
-        <f>$C153*K$151+$D153*K$151^2</f>
-        <v>5.72790494646104</v>
-      </c>
-      <c r="L153" s="91">
-        <f>$C153*L$151+$D153*L$151^2</f>
-        <v>10.1829421270419</v>
-      </c>
-      <c r="M153" s="91">
-        <f>$C153*M$151+$D153*M$151^2</f>
-        <v>15.9108470735029</v>
+      <c r="F153" s="90">
+        <f t="shared" ref="F153:M163" si="16">$C153*F$151+$D153*F$151^2</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="90">
+        <f t="shared" si="16"/>
+        <v>0.15910847073502901</v>
+      </c>
+      <c r="H153" s="90">
+        <f t="shared" si="16"/>
+        <v>0.63643388294011605</v>
+      </c>
+      <c r="I153" s="90">
+        <f t="shared" si="16"/>
+        <v>1.4319762366152611</v>
+      </c>
+      <c r="J153" s="90">
+        <f t="shared" si="16"/>
+        <v>2.5457355317604642</v>
+      </c>
+      <c r="K153" s="90">
+        <f t="shared" si="16"/>
+        <v>5.7279049464610443</v>
+      </c>
+      <c r="L153" s="90">
+        <f t="shared" si="16"/>
+        <v>10.182942127041857</v>
+      </c>
+      <c r="M153" s="90">
+        <f t="shared" si="16"/>
+        <v>15.910847073502902</v>
       </c>
       <c r="N153" s="7"/>
       <c r="O153" s="3"/>
@@ -10128,48 +9932,48 @@
       <c r="AG153" s="3"/>
       <c r="AH153" s="3"/>
     </row>
-    <row r="154" ht="16" customHeight="1">
+    <row r="154" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
-      <c r="B154" t="s" s="16">
+      <c r="B154" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C154" s="90">
-        <v>0</v>
-      </c>
-      <c r="D154" s="90">
+      <c r="C154" s="89">
+        <v>0</v>
+      </c>
+      <c r="D154" s="89">
         <v>0.161723439076086</v>
       </c>
       <c r="E154" s="30"/>
-      <c r="F154" s="91">
-        <f>$C154*F$151+$D154*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G154" s="91">
-        <f>$C154*G$151+$D154*G$151^2</f>
+      <c r="F154" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="90">
+        <f t="shared" si="16"/>
         <v>0.161723439076086</v>
       </c>
-      <c r="H154" s="91">
-        <f>$C154*H$151+$D154*H$151^2</f>
-        <v>0.646893756304344</v>
-      </c>
-      <c r="I154" s="91">
-        <f>$C154*I$151+$D154*I$151^2</f>
-        <v>1.45551095168477</v>
-      </c>
-      <c r="J154" s="91">
-        <f>$C154*J$151+$D154*J$151^2</f>
-        <v>2.58757502521738</v>
-      </c>
-      <c r="K154" s="91">
-        <f>$C154*K$151+$D154*K$151^2</f>
-        <v>5.8220438067391</v>
-      </c>
-      <c r="L154" s="91">
-        <f>$C154*L$151+$D154*L$151^2</f>
-        <v>10.3503001008695</v>
-      </c>
-      <c r="M154" s="91">
-        <f>$C154*M$151+$D154*M$151^2</f>
+      <c r="H154" s="90">
+        <f t="shared" si="16"/>
+        <v>0.64689375630434398</v>
+      </c>
+      <c r="I154" s="90">
+        <f t="shared" si="16"/>
+        <v>1.455510951684774</v>
+      </c>
+      <c r="J154" s="90">
+        <f t="shared" si="16"/>
+        <v>2.5875750252173759</v>
+      </c>
+      <c r="K154" s="90">
+        <f t="shared" si="16"/>
+        <v>5.8220438067390958</v>
+      </c>
+      <c r="L154" s="90">
+        <f t="shared" si="16"/>
+        <v>10.350300100869504</v>
+      </c>
+      <c r="M154" s="90">
+        <f t="shared" si="16"/>
         <v>16.1723439076086</v>
       </c>
       <c r="N154" s="7"/>
@@ -10194,49 +9998,49 @@
       <c r="AG154" s="3"/>
       <c r="AH154" s="3"/>
     </row>
-    <row r="155" ht="16" customHeight="1">
+    <row r="155" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="B155" t="s" s="16">
+      <c r="B155" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C155" s="90">
-        <v>0</v>
-      </c>
-      <c r="D155" s="90">
+      <c r="C155" s="89">
+        <v>0</v>
+      </c>
+      <c r="D155" s="89">
         <v>0.1150584430576</v>
       </c>
       <c r="E155" s="30"/>
-      <c r="F155" s="91">
-        <f>$C155*F$151+$D155*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="91">
-        <f>$C155*G$151+$D155*G$151^2</f>
+      <c r="F155" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="90">
+        <f t="shared" si="16"/>
         <v>0.1150584430576</v>
       </c>
-      <c r="H155" s="91">
-        <f>$C155*H$151+$D155*H$151^2</f>
-        <v>0.4602337722304</v>
-      </c>
-      <c r="I155" s="91">
-        <f>$C155*I$151+$D155*I$151^2</f>
+      <c r="H155" s="90">
+        <f t="shared" si="16"/>
+        <v>0.46023377223040002</v>
+      </c>
+      <c r="I155" s="90">
+        <f t="shared" si="16"/>
         <v>1.0355259875184</v>
       </c>
-      <c r="J155" s="91">
-        <f>$C155*J$151+$D155*J$151^2</f>
-        <v>1.8409350889216</v>
-      </c>
-      <c r="K155" s="91">
-        <f>$C155*K$151+$D155*K$151^2</f>
-        <v>4.1421039500736</v>
-      </c>
-      <c r="L155" s="91">
-        <f>$C155*L$151+$D155*L$151^2</f>
-        <v>7.3637403556864</v>
-      </c>
-      <c r="M155" s="91">
-        <f>$C155*M$151+$D155*M$151^2</f>
-        <v>11.505844305760</v>
+      <c r="J155" s="90">
+        <f t="shared" si="16"/>
+        <v>1.8409350889216001</v>
+      </c>
+      <c r="K155" s="90">
+        <f t="shared" si="16"/>
+        <v>4.1421039500735999</v>
+      </c>
+      <c r="L155" s="90">
+        <f t="shared" si="16"/>
+        <v>7.3637403556864003</v>
+      </c>
+      <c r="M155" s="90">
+        <f t="shared" si="16"/>
+        <v>11.50584430576</v>
       </c>
       <c r="N155" s="7"/>
       <c r="O155" s="3"/>
@@ -10260,48 +10064,48 @@
       <c r="AG155" s="3"/>
       <c r="AH155" s="3"/>
     </row>
-    <row r="156" ht="16" customHeight="1">
+    <row r="156" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" t="s" s="16">
+      <c r="B156" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C156" s="90">
-        <v>0</v>
-      </c>
-      <c r="D156" s="90">
-        <v>0.130472438862211</v>
+      <c r="C156" s="89">
+        <v>0</v>
+      </c>
+      <c r="D156" s="89">
+        <v>0.13047243886221099</v>
       </c>
       <c r="E156" s="30"/>
-      <c r="F156" s="91">
-        <f>$C156*F$151+$D156*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G156" s="91">
-        <f>$C156*G$151+$D156*G$151^2</f>
-        <v>0.130472438862211</v>
-      </c>
-      <c r="H156" s="91">
-        <f>$C156*H$151+$D156*H$151^2</f>
-        <v>0.521889755448844</v>
-      </c>
-      <c r="I156" s="91">
-        <f>$C156*I$151+$D156*I$151^2</f>
-        <v>1.1742519497599</v>
-      </c>
-      <c r="J156" s="91">
-        <f>$C156*J$151+$D156*J$151^2</f>
-        <v>2.08755902179538</v>
-      </c>
-      <c r="K156" s="91">
-        <f>$C156*K$151+$D156*K$151^2</f>
-        <v>4.6970077990396</v>
-      </c>
-      <c r="L156" s="91">
-        <f>$C156*L$151+$D156*L$151^2</f>
-        <v>8.3502360871815</v>
-      </c>
-      <c r="M156" s="91">
-        <f>$C156*M$151+$D156*M$151^2</f>
+      <c r="F156" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="90">
+        <f t="shared" si="16"/>
+        <v>0.13047243886221099</v>
+      </c>
+      <c r="H156" s="90">
+        <f t="shared" si="16"/>
+        <v>0.52188975544884397</v>
+      </c>
+      <c r="I156" s="90">
+        <f t="shared" si="16"/>
+        <v>1.1742519497598989</v>
+      </c>
+      <c r="J156" s="90">
+        <f t="shared" si="16"/>
+        <v>2.0875590217953759</v>
+      </c>
+      <c r="K156" s="90">
+        <f t="shared" si="16"/>
+        <v>4.6970077990395955</v>
+      </c>
+      <c r="L156" s="90">
+        <f t="shared" si="16"/>
+        <v>8.3502360871815036</v>
+      </c>
+      <c r="M156" s="90">
+        <f t="shared" si="16"/>
         <v>13.0472438862211</v>
       </c>
       <c r="N156" s="7"/>
@@ -10326,49 +10130,49 @@
       <c r="AG156" s="3"/>
       <c r="AH156" s="3"/>
     </row>
-    <row r="157" ht="16" customHeight="1">
+    <row r="157" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" t="s" s="16">
+      <c r="B157" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="90">
-        <v>0.078458281280447</v>
-      </c>
-      <c r="D157" s="90">
-        <v>0.125893028300915</v>
+      <c r="C157" s="89">
+        <v>7.8458281280447004E-2</v>
+      </c>
+      <c r="D157" s="89">
+        <v>0.12589302830091501</v>
       </c>
       <c r="E157" s="30"/>
-      <c r="F157" s="91">
-        <f>$C157*F$151+$D157*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G157" s="91">
-        <f>$C157*G$151+$D157*G$151^2</f>
+      <c r="F157" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="90">
+        <f t="shared" si="16"/>
         <v>0.204351309581362</v>
       </c>
-      <c r="H157" s="91">
-        <f>$C157*H$151+$D157*H$151^2</f>
-        <v>0.6604886757645539</v>
-      </c>
-      <c r="I157" s="91">
-        <f>$C157*I$151+$D157*I$151^2</f>
-        <v>1.36841209854958</v>
-      </c>
-      <c r="J157" s="91">
-        <f>$C157*J$151+$D157*J$151^2</f>
-        <v>2.32812157793643</v>
-      </c>
-      <c r="K157" s="91">
-        <f>$C157*K$151+$D157*K$151^2</f>
-        <v>5.00289870651562</v>
-      </c>
-      <c r="L157" s="91">
-        <f>$C157*L$151+$D157*L$151^2</f>
-        <v>8.68482006150214</v>
-      </c>
-      <c r="M157" s="91">
-        <f>$C157*M$151+$D157*M$151^2</f>
-        <v>13.373885642896</v>
+      <c r="H157" s="90">
+        <f t="shared" si="16"/>
+        <v>0.66048867576455406</v>
+      </c>
+      <c r="I157" s="90">
+        <f t="shared" si="16"/>
+        <v>1.368412098549576</v>
+      </c>
+      <c r="J157" s="90">
+        <f t="shared" si="16"/>
+        <v>2.3281215779364279</v>
+      </c>
+      <c r="K157" s="90">
+        <f t="shared" si="16"/>
+        <v>5.0028987065156221</v>
+      </c>
+      <c r="L157" s="90">
+        <f t="shared" si="16"/>
+        <v>8.6848200615021369</v>
+      </c>
+      <c r="M157" s="90">
+        <f t="shared" si="16"/>
+        <v>13.373885642895971</v>
       </c>
       <c r="N157" s="7"/>
       <c r="O157" s="3"/>
@@ -10392,49 +10196,49 @@
       <c r="AG157" s="3"/>
       <c r="AH157" s="3"/>
     </row>
-    <row r="158" ht="16" customHeight="1">
+    <row r="158" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" t="s" s="16">
+      <c r="B158" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C158" s="90">
-        <v>0.438521282504637</v>
-      </c>
-      <c r="D158" s="90">
+      <c r="C158" s="89">
+        <v>0.43852128250463701</v>
+      </c>
+      <c r="D158" s="89">
         <v>0.16887308347048</v>
       </c>
       <c r="E158" s="30"/>
-      <c r="F158" s="91">
-        <f>$C158*F$151+$D158*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G158" s="91">
-        <f>$C158*G$151+$D158*G$151^2</f>
-        <v>0.607394365975117</v>
-      </c>
-      <c r="H158" s="91">
-        <f>$C158*H$151+$D158*H$151^2</f>
-        <v>1.55253489889119</v>
-      </c>
-      <c r="I158" s="91">
-        <f>$C158*I$151+$D158*I$151^2</f>
-        <v>2.83542159874823</v>
-      </c>
-      <c r="J158" s="91">
-        <f>$C158*J$151+$D158*J$151^2</f>
-        <v>4.45605446554623</v>
-      </c>
-      <c r="K158" s="91">
-        <f>$C158*K$151+$D158*K$151^2</f>
-        <v>8.7105586999651</v>
-      </c>
-      <c r="L158" s="91">
-        <f>$C158*L$151+$D158*L$151^2</f>
-        <v>14.3160476021478</v>
-      </c>
-      <c r="M158" s="91">
-        <f>$C158*M$151+$D158*M$151^2</f>
-        <v>21.2725211720944</v>
+      <c r="F158" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="90">
+        <f t="shared" si="16"/>
+        <v>0.60739436597511698</v>
+      </c>
+      <c r="H158" s="90">
+        <f t="shared" si="16"/>
+        <v>1.552534898891194</v>
+      </c>
+      <c r="I158" s="90">
+        <f t="shared" si="16"/>
+        <v>2.8354215987482307</v>
+      </c>
+      <c r="J158" s="90">
+        <f t="shared" si="16"/>
+        <v>4.4560544655462282</v>
+      </c>
+      <c r="K158" s="90">
+        <f t="shared" si="16"/>
+        <v>8.7105586999651017</v>
+      </c>
+      <c r="L158" s="90">
+        <f t="shared" si="16"/>
+        <v>14.316047602147815</v>
+      </c>
+      <c r="M158" s="90">
+        <f t="shared" si="16"/>
+        <v>21.272521172094368</v>
       </c>
       <c r="N158" s="7"/>
       <c r="O158" s="3"/>
@@ -10458,49 +10262,49 @@
       <c r="AG158" s="3"/>
       <c r="AH158" s="3"/>
     </row>
-    <row r="159" ht="16" customHeight="1">
+    <row r="159" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" t="s" s="16">
+      <c r="B159" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="90">
-        <v>0.277989263814899</v>
-      </c>
-      <c r="D159" s="90">
-        <v>0.158598557116346</v>
+      <c r="C159" s="89">
+        <v>0.27798926381489902</v>
+      </c>
+      <c r="D159" s="89">
+        <v>0.15859855711634599</v>
       </c>
       <c r="E159" s="30"/>
-      <c r="F159" s="91">
-        <f>$C159*F$151+$D159*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G159" s="91">
-        <f>$C159*G$151+$D159*G$151^2</f>
-        <v>0.436587820931245</v>
-      </c>
-      <c r="H159" s="91">
-        <f>$C159*H$151+$D159*H$151^2</f>
-        <v>1.19037275609518</v>
-      </c>
-      <c r="I159" s="91">
-        <f>$C159*I$151+$D159*I$151^2</f>
-        <v>2.26135480549181</v>
-      </c>
-      <c r="J159" s="91">
-        <f>$C159*J$151+$D159*J$151^2</f>
-        <v>3.64953396912113</v>
-      </c>
-      <c r="K159" s="91">
-        <f>$C159*K$151+$D159*K$151^2</f>
+      <c r="F159" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="90">
+        <f t="shared" si="16"/>
+        <v>0.43658782093124504</v>
+      </c>
+      <c r="H159" s="90">
+        <f t="shared" si="16"/>
+        <v>1.190372756095182</v>
+      </c>
+      <c r="I159" s="90">
+        <f t="shared" si="16"/>
+        <v>2.2613548054918109</v>
+      </c>
+      <c r="J159" s="90">
+        <f t="shared" si="16"/>
+        <v>3.6495339691211317</v>
+      </c>
+      <c r="K159" s="90">
+        <f t="shared" si="16"/>
         <v>7.37748363907785</v>
       </c>
-      <c r="L159" s="91">
-        <f>$C159*L$151+$D159*L$151^2</f>
-        <v>12.3742217659653</v>
-      </c>
-      <c r="M159" s="91">
-        <f>$C159*M$151+$D159*M$151^2</f>
-        <v>18.6397483497836</v>
+      <c r="L159" s="90">
+        <f t="shared" si="16"/>
+        <v>12.374221765965336</v>
+      </c>
+      <c r="M159" s="90">
+        <f t="shared" si="16"/>
+        <v>18.639748349783591</v>
       </c>
       <c r="N159" s="7"/>
       <c r="O159" s="3"/>
@@ -10524,49 +10328,49 @@
       <c r="AG159" s="3"/>
       <c r="AH159" s="3"/>
     </row>
-    <row r="160" ht="16" customHeight="1">
+    <row r="160" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" t="s" s="16">
+      <c r="B160" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C160" s="90">
-        <v>0.340973731427736</v>
-      </c>
-      <c r="D160" s="90">
+      <c r="C160" s="89">
+        <v>0.34097373142773602</v>
+      </c>
+      <c r="D160" s="89">
         <v>0.198320367510081</v>
       </c>
       <c r="E160" s="30"/>
-      <c r="F160" s="91">
-        <f>$C160*F$151+$D160*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G160" s="91">
-        <f>$C160*G$151+$D160*G$151^2</f>
-        <v>0.539294098937817</v>
-      </c>
-      <c r="H160" s="91">
-        <f>$C160*H$151+$D160*H$151^2</f>
-        <v>1.4752289328958</v>
-      </c>
-      <c r="I160" s="91">
-        <f>$C160*I$151+$D160*I$151^2</f>
-        <v>2.80780450187394</v>
-      </c>
-      <c r="J160" s="91">
-        <f>$C160*J$151+$D160*J$151^2</f>
-        <v>4.53702080587224</v>
-      </c>
-      <c r="K160" s="91">
-        <f>$C160*K$151+$D160*K$151^2</f>
-        <v>9.18537561892933</v>
-      </c>
-      <c r="L160" s="91">
-        <f>$C160*L$151+$D160*L$151^2</f>
-        <v>15.4202933720671</v>
-      </c>
-      <c r="M160" s="91">
-        <f>$C160*M$151+$D160*M$151^2</f>
-        <v>23.2417740652855</v>
+      <c r="F160" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="90">
+        <f t="shared" si="16"/>
+        <v>0.53929409893781699</v>
+      </c>
+      <c r="H160" s="90">
+        <f t="shared" si="16"/>
+        <v>1.4752289328957962</v>
+      </c>
+      <c r="I160" s="90">
+        <f t="shared" si="16"/>
+        <v>2.807804501873937</v>
+      </c>
+      <c r="J160" s="90">
+        <f t="shared" si="16"/>
+        <v>4.5370208058722401</v>
+      </c>
+      <c r="K160" s="90">
+        <f t="shared" si="16"/>
+        <v>9.1853756189293314</v>
+      </c>
+      <c r="L160" s="90">
+        <f t="shared" si="16"/>
+        <v>15.420293372067071</v>
+      </c>
+      <c r="M160" s="90">
+        <f t="shared" si="16"/>
+        <v>23.241774065285462</v>
       </c>
       <c r="N160" s="7"/>
       <c r="O160" s="3"/>
@@ -10590,49 +10394,49 @@
       <c r="AG160" s="3"/>
       <c r="AH160" s="3"/>
     </row>
-    <row r="161" ht="16" customHeight="1">
+    <row r="161" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" t="s" s="16">
+      <c r="B161" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C161" s="90">
-        <v>0.0608985905985258</v>
-      </c>
-      <c r="D161" s="90">
-        <v>0.13454323082345</v>
+      <c r="C161" s="89">
+        <v>6.0898590598525801E-2</v>
+      </c>
+      <c r="D161" s="89">
+        <v>0.13454323082344999</v>
       </c>
       <c r="E161" s="30"/>
-      <c r="F161" s="91">
-        <f>$C161*F$151+$D161*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G161" s="91">
-        <f>$C161*G$151+$D161*G$151^2</f>
-        <v>0.195441821421976</v>
-      </c>
-      <c r="H161" s="91">
-        <f>$C161*H$151+$D161*H$151^2</f>
-        <v>0.659970104490852</v>
-      </c>
-      <c r="I161" s="91">
-        <f>$C161*I$151+$D161*I$151^2</f>
-        <v>1.39358484920663</v>
-      </c>
-      <c r="J161" s="91">
-        <f>$C161*J$151+$D161*J$151^2</f>
-        <v>2.3962860555693</v>
-      </c>
-      <c r="K161" s="91">
-        <f>$C161*K$151+$D161*K$151^2</f>
-        <v>5.20894785323535</v>
-      </c>
-      <c r="L161" s="91">
-        <f>$C161*L$151+$D161*L$151^2</f>
-        <v>9.097955497489011</v>
-      </c>
-      <c r="M161" s="91">
-        <f>$C161*M$151+$D161*M$151^2</f>
-        <v>14.0633089883303</v>
+      <c r="F161" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="90">
+        <f t="shared" si="16"/>
+        <v>0.1954418214219758</v>
+      </c>
+      <c r="H161" s="90">
+        <f t="shared" si="16"/>
+        <v>0.65997010449085158</v>
+      </c>
+      <c r="I161" s="90">
+        <f t="shared" si="16"/>
+        <v>1.3935848492066274</v>
+      </c>
+      <c r="J161" s="90">
+        <f t="shared" si="16"/>
+        <v>2.3962860555693029</v>
+      </c>
+      <c r="K161" s="90">
+        <f t="shared" si="16"/>
+        <v>5.2089478532353546</v>
+      </c>
+      <c r="L161" s="90">
+        <f t="shared" si="16"/>
+        <v>9.0979554974890053</v>
+      </c>
+      <c r="M161" s="90">
+        <f t="shared" si="16"/>
+        <v>14.063308988330256</v>
       </c>
       <c r="N161" s="7"/>
       <c r="O161" s="3"/>
@@ -10656,49 +10460,49 @@
       <c r="AG161" s="3"/>
       <c r="AH161" s="3"/>
     </row>
-    <row r="162" ht="16" customHeight="1">
+    <row r="162" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
-      <c r="B162" t="s" s="16">
+      <c r="B162" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C162" s="90">
-        <v>0</v>
-      </c>
-      <c r="D162" s="90">
-        <v>0.156391501618675</v>
+      <c r="C162" s="89">
+        <v>0</v>
+      </c>
+      <c r="D162" s="89">
+        <v>0.15639150161867499</v>
       </c>
       <c r="E162" s="30"/>
-      <c r="F162" s="91">
-        <f>$C162*F$151+$D162*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G162" s="91">
-        <f>$C162*G$151+$D162*G$151^2</f>
-        <v>0.156391501618675</v>
-      </c>
-      <c r="H162" s="91">
-        <f>$C162*H$151+$D162*H$151^2</f>
-        <v>0.6255660064747</v>
-      </c>
-      <c r="I162" s="91">
-        <f>$C162*I$151+$D162*I$151^2</f>
-        <v>1.40752351456808</v>
-      </c>
-      <c r="J162" s="91">
-        <f>$C162*J$151+$D162*J$151^2</f>
-        <v>2.5022640258988</v>
-      </c>
-      <c r="K162" s="91">
-        <f>$C162*K$151+$D162*K$151^2</f>
-        <v>5.6300940582723</v>
-      </c>
-      <c r="L162" s="91">
-        <f>$C162*L$151+$D162*L$151^2</f>
-        <v>10.0090561035952</v>
-      </c>
-      <c r="M162" s="91">
-        <f>$C162*M$151+$D162*M$151^2</f>
-        <v>15.6391501618675</v>
+      <c r="F162" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="90">
+        <f t="shared" si="16"/>
+        <v>0.15639150161867499</v>
+      </c>
+      <c r="H162" s="90">
+        <f t="shared" si="16"/>
+        <v>0.62556600647469995</v>
+      </c>
+      <c r="I162" s="90">
+        <f t="shared" si="16"/>
+        <v>1.4075235145680749</v>
+      </c>
+      <c r="J162" s="90">
+        <f t="shared" si="16"/>
+        <v>2.5022640258987998</v>
+      </c>
+      <c r="K162" s="90">
+        <f t="shared" si="16"/>
+        <v>5.6300940582722996</v>
+      </c>
+      <c r="L162" s="90">
+        <f t="shared" si="16"/>
+        <v>10.009056103595199</v>
+      </c>
+      <c r="M162" s="90">
+        <f t="shared" si="16"/>
+        <v>15.639150161867498</v>
       </c>
       <c r="N162" s="7"/>
       <c r="O162" s="3"/>
@@ -10722,49 +10526,49 @@
       <c r="AG162" s="3"/>
       <c r="AH162" s="3"/>
     </row>
-    <row r="163" ht="16" customHeight="1">
+    <row r="163" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" t="s" s="16">
-        <v>183</v>
-      </c>
-      <c r="C163" s="90">
-        <v>0.17551222871918</v>
-      </c>
-      <c r="D163" s="90">
+      <c r="B163" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" s="89">
+        <v>0.17551222871918001</v>
+      </c>
+      <c r="D163" s="89">
         <v>0.17344211485103</v>
       </c>
       <c r="E163" s="30"/>
-      <c r="F163" s="91">
-        <f>$C163*F$151+$D163*F$151^2</f>
-        <v>0</v>
-      </c>
-      <c r="G163" s="91">
-        <f>$C163*G$151+$D163*G$151^2</f>
-        <v>0.34895434357021</v>
-      </c>
-      <c r="H163" s="91">
-        <f>$C163*H$151+$D163*H$151^2</f>
-        <v>1.04479291684248</v>
-      </c>
-      <c r="I163" s="91">
-        <f>$C163*I$151+$D163*I$151^2</f>
-        <v>2.08751571981681</v>
-      </c>
-      <c r="J163" s="91">
-        <f>$C163*J$151+$D163*J$151^2</f>
-        <v>3.4771227524932</v>
-      </c>
-      <c r="K163" s="91">
-        <f>$C163*K$151+$D163*K$151^2</f>
-        <v>7.29698950695216</v>
-      </c>
-      <c r="L163" s="91">
-        <f>$C163*L$151+$D163*L$151^2</f>
-        <v>12.5043931802194</v>
-      </c>
-      <c r="M163" s="91">
-        <f>$C163*M$151+$D163*M$151^2</f>
-        <v>19.0993337722948</v>
+      <c r="F163" s="90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="90">
+        <f t="shared" si="16"/>
+        <v>0.34895434357021005</v>
+      </c>
+      <c r="H163" s="90">
+        <f t="shared" si="16"/>
+        <v>1.0447929168424801</v>
+      </c>
+      <c r="I163" s="90">
+        <f t="shared" si="16"/>
+        <v>2.0875157198168104</v>
+      </c>
+      <c r="J163" s="90">
+        <f t="shared" si="16"/>
+        <v>3.4771227524932002</v>
+      </c>
+      <c r="K163" s="90">
+        <f t="shared" si="16"/>
+        <v>7.2969895069521602</v>
+      </c>
+      <c r="L163" s="90">
+        <f t="shared" si="16"/>
+        <v>12.50439318021936</v>
+      </c>
+      <c r="M163" s="90">
+        <f t="shared" si="16"/>
+        <v>19.099333772294798</v>
       </c>
       <c r="N163" s="7"/>
       <c r="O163" s="3"/>
@@ -10788,7 +10592,7 @@
       <c r="AG163" s="3"/>
       <c r="AH163" s="3"/>
     </row>
-    <row r="164" ht="16" customHeight="1">
+    <row r="164" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -10797,7 +10601,7 @@
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
       <c r="H164" s="37"/>
-      <c r="I164" s="92"/>
+      <c r="I164" s="91"/>
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
       <c r="L164" s="11"/>
@@ -10824,7 +10628,7 @@
       <c r="AG164" s="3"/>
       <c r="AH164" s="3"/>
     </row>
-    <row r="165" ht="16" customHeight="1">
+    <row r="165" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -10833,7 +10637,7 @@
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
       <c r="H165" s="37"/>
-      <c r="I165" s="79"/>
+      <c r="I165" s="78"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
@@ -10860,45 +10664,45 @@
       <c r="AG165" s="3"/>
       <c r="AH165" s="3"/>
     </row>
-    <row r="166" ht="13.55" customHeight="1">
-      <c r="A166" s="93"/>
-      <c r="B166" s="93"/>
-      <c r="C166" s="93"/>
-      <c r="D166" s="93"/>
-      <c r="E166" s="93"/>
-      <c r="F166" s="94"/>
-      <c r="G166" s="94"/>
-      <c r="H166" s="94"/>
-      <c r="I166" s="93"/>
-      <c r="J166" s="93"/>
-      <c r="K166" s="93"/>
-      <c r="L166" s="93"/>
-      <c r="M166" s="93"/>
-      <c r="N166" s="93"/>
-      <c r="O166" s="93"/>
-      <c r="P166" s="93"/>
-      <c r="Q166" s="93"/>
-      <c r="R166" s="93"/>
-      <c r="S166" s="93"/>
-      <c r="T166" s="93"/>
-      <c r="U166" s="93"/>
-      <c r="V166" s="93"/>
-      <c r="W166" s="93"/>
-      <c r="X166" s="93"/>
-      <c r="Y166" s="93"/>
-      <c r="Z166" s="93"/>
-      <c r="AA166" s="93"/>
-      <c r="AB166" s="93"/>
-      <c r="AC166" s="93"/>
-      <c r="AD166" s="93"/>
-      <c r="AE166" s="93"/>
-      <c r="AF166" s="93"/>
-      <c r="AG166" s="93"/>
-      <c r="AH166" s="93"/>
+    <row r="166" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="92"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="92"/>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="93"/>
+      <c r="G166" s="93"/>
+      <c r="H166" s="93"/>
+      <c r="I166" s="92"/>
+      <c r="J166" s="92"/>
+      <c r="K166" s="92"/>
+      <c r="L166" s="92"/>
+      <c r="M166" s="92"/>
+      <c r="N166" s="92"/>
+      <c r="O166" s="92"/>
+      <c r="P166" s="92"/>
+      <c r="Q166" s="92"/>
+      <c r="R166" s="92"/>
+      <c r="S166" s="92"/>
+      <c r="T166" s="92"/>
+      <c r="U166" s="92"/>
+      <c r="V166" s="92"/>
+      <c r="W166" s="92"/>
+      <c r="X166" s="92"/>
+      <c r="Y166" s="92"/>
+      <c r="Z166" s="92"/>
+      <c r="AA166" s="92"/>
+      <c r="AB166" s="92"/>
+      <c r="AC166" s="92"/>
+      <c r="AD166" s="92"/>
+      <c r="AE166" s="92"/>
+      <c r="AF166" s="92"/>
+      <c r="AG166" s="92"/>
+      <c r="AH166" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
